--- a/data/expected_death_f_2020.xlsx
+++ b/data/expected_death_f_2020.xlsx
@@ -1595,10 +1595,10 @@
         <v>143.38974546912</v>
       </c>
       <c r="I2" t="n">
-        <v>113.995</v>
+        <v>118</v>
       </c>
       <c r="J2" t="n">
-        <v>191</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3">
@@ -1627,10 +1627,10 @@
         <v>147.93134054312</v>
       </c>
       <c r="I3" t="n">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="J3" t="n">
-        <v>185</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4">
@@ -1659,10 +1659,10 @@
         <v>179.882537579195</v>
       </c>
       <c r="I4" t="n">
-        <v>127.995</v>
+        <v>136</v>
       </c>
       <c r="J4" t="n">
-        <v>224.02</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5">
@@ -1691,10 +1691,10 @@
         <v>107.542239621789</v>
       </c>
       <c r="I5" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="J5" t="n">
-        <v>137.02</v>
+        <v>129.025</v>
       </c>
     </row>
     <row r="6">
@@ -1723,10 +1723,10 @@
         <v>95.7373642488647</v>
       </c>
       <c r="I6" t="n">
-        <v>65.995</v>
+        <v>73</v>
       </c>
       <c r="J6" t="n">
-        <v>140.01</v>
+        <v>131.025</v>
       </c>
     </row>
     <row r="7">
@@ -1755,10 +1755,10 @@
         <v>108.925460383683</v>
       </c>
       <c r="I7" t="n">
-        <v>58</v>
+        <v>68.975</v>
       </c>
       <c r="J7" t="n">
-        <v>158</v>
+        <v>144.025</v>
       </c>
     </row>
     <row r="8">
@@ -1787,10 +1787,10 @@
         <v>458.25549546807</v>
       </c>
       <c r="I8" t="n">
-        <v>318.98</v>
+        <v>335</v>
       </c>
       <c r="J8" t="n">
-        <v>646.01</v>
+        <v>622</v>
       </c>
     </row>
     <row r="9">
@@ -1819,10 +1819,10 @@
         <v>512.027843921766</v>
       </c>
       <c r="I9" t="n">
-        <v>303.995</v>
+        <v>310.975</v>
       </c>
       <c r="J9" t="n">
-        <v>620.03</v>
+        <v>599</v>
       </c>
     </row>
     <row r="10">
@@ -1851,10 +1851,10 @@
         <v>546.969698793387</v>
       </c>
       <c r="I10" t="n">
-        <v>442.975</v>
+        <v>469</v>
       </c>
       <c r="J10" t="n">
-        <v>676.01</v>
+        <v>662.025</v>
       </c>
     </row>
     <row r="11">
@@ -1883,10 +1883,10 @@
         <v>254.263052942501</v>
       </c>
       <c r="I11" t="n">
-        <v>198.995</v>
+        <v>212</v>
       </c>
       <c r="J11" t="n">
-        <v>364.015</v>
+        <v>338.05</v>
       </c>
     </row>
     <row r="12">
@@ -1915,10 +1915,10 @@
         <v>273.113709493088</v>
       </c>
       <c r="I12" t="n">
-        <v>200.98</v>
+        <v>211.95</v>
       </c>
       <c r="J12" t="n">
-        <v>329.02</v>
+        <v>314</v>
       </c>
     </row>
     <row r="13">
@@ -1947,10 +1947,10 @@
         <v>268.649719477743</v>
       </c>
       <c r="I13" t="n">
-        <v>213.995</v>
+        <v>221.975</v>
       </c>
       <c r="J13" t="n">
-        <v>356</v>
+        <v>339.025</v>
       </c>
     </row>
     <row r="14">
@@ -1979,10 +1979,10 @@
         <v>368.814289595178</v>
       </c>
       <c r="I14" t="n">
-        <v>237.99</v>
+        <v>247.975</v>
       </c>
       <c r="J14" t="n">
-        <v>481.02</v>
+        <v>437.025</v>
       </c>
     </row>
     <row r="15">
@@ -2011,10 +2011,10 @@
         <v>375.076304647699</v>
       </c>
       <c r="I15" t="n">
-        <v>299</v>
+        <v>317.95</v>
       </c>
       <c r="J15" t="n">
-        <v>542.005</v>
+        <v>524.025</v>
       </c>
     </row>
     <row r="16">
@@ -2043,10 +2043,10 @@
         <v>363.003753452348</v>
       </c>
       <c r="I16" t="n">
-        <v>299</v>
+        <v>321</v>
       </c>
       <c r="J16" t="n">
-        <v>417.04</v>
+        <v>407</v>
       </c>
     </row>
     <row r="17">
@@ -2075,10 +2075,10 @@
         <v>514.522941876544</v>
       </c>
       <c r="I17" t="n">
-        <v>418.99</v>
+        <v>441</v>
       </c>
       <c r="J17" t="n">
-        <v>634</v>
+        <v>594.025</v>
       </c>
     </row>
     <row r="18">
@@ -2107,10 +2107,10 @@
         <v>493.664220465314</v>
       </c>
       <c r="I18" t="n">
-        <v>416.985</v>
+        <v>429.975</v>
       </c>
       <c r="J18" t="n">
-        <v>607.01</v>
+        <v>567.125</v>
       </c>
     </row>
     <row r="19">
@@ -2139,10 +2139,10 @@
         <v>517.839145808397</v>
       </c>
       <c r="I19" t="n">
-        <v>417.995</v>
+        <v>440</v>
       </c>
       <c r="J19" t="n">
-        <v>649.015</v>
+        <v>611.05</v>
       </c>
     </row>
     <row r="20">
@@ -2171,10 +2171,10 @@
         <v>476.02624838247</v>
       </c>
       <c r="I20" t="n">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="J20" t="n">
-        <v>535</v>
+        <v>519</v>
       </c>
     </row>
     <row r="21">
@@ -2203,10 +2203,10 @@
         <v>486.971261554792</v>
       </c>
       <c r="I21" t="n">
-        <v>430</v>
+        <v>443</v>
       </c>
       <c r="J21" t="n">
-        <v>541</v>
+        <v>531</v>
       </c>
     </row>
     <row r="22">
@@ -2235,10 +2235,10 @@
         <v>502.866375014455</v>
       </c>
       <c r="I22" t="n">
-        <v>436.995</v>
+        <v>452.975</v>
       </c>
       <c r="J22" t="n">
-        <v>566</v>
+        <v>545</v>
       </c>
     </row>
     <row r="23">
@@ -2267,10 +2267,10 @@
         <v>204.482950699592</v>
       </c>
       <c r="I23" t="n">
-        <v>157.965</v>
+        <v>170.975</v>
       </c>
       <c r="J23" t="n">
-        <v>269</v>
+        <v>254.025</v>
       </c>
     </row>
     <row r="24">
@@ -2299,10 +2299,10 @@
         <v>188.702153165774</v>
       </c>
       <c r="I24" t="n">
-        <v>150.99</v>
+        <v>158.975</v>
       </c>
       <c r="J24" t="n">
-        <v>259</v>
+        <v>240</v>
       </c>
     </row>
     <row r="25">
@@ -2331,10 +2331,10 @@
         <v>213.244185499692</v>
       </c>
       <c r="I25" t="n">
-        <v>143.99</v>
+        <v>148</v>
       </c>
       <c r="J25" t="n">
-        <v>275.005</v>
+        <v>263</v>
       </c>
     </row>
     <row r="26">
@@ -2363,10 +2363,10 @@
         <v>394.4561610523</v>
       </c>
       <c r="I26" t="n">
-        <v>345.97</v>
+        <v>356</v>
       </c>
       <c r="J26" t="n">
-        <v>458</v>
+        <v>441</v>
       </c>
     </row>
     <row r="27">
@@ -2395,10 +2395,10 @@
         <v>406.215216753968</v>
       </c>
       <c r="I27" t="n">
-        <v>340</v>
+        <v>354</v>
       </c>
       <c r="J27" t="n">
-        <v>470</v>
+        <v>454</v>
       </c>
     </row>
     <row r="28">
@@ -2427,10 +2427,10 @@
         <v>411.266137077425</v>
       </c>
       <c r="I28" t="n">
-        <v>353</v>
+        <v>370.975</v>
       </c>
       <c r="J28" t="n">
-        <v>480</v>
+        <v>463</v>
       </c>
     </row>
     <row r="29">
@@ -2459,10 +2459,10 @@
         <v>654.727326754211</v>
       </c>
       <c r="I29" t="n">
-        <v>481.99</v>
+        <v>508.975</v>
       </c>
       <c r="J29" t="n">
-        <v>968.03</v>
+        <v>954.025</v>
       </c>
     </row>
     <row r="30">
@@ -2491,10 +2491,10 @@
         <v>647.949994405921</v>
       </c>
       <c r="I30" t="n">
-        <v>443.95</v>
+        <v>470.95</v>
       </c>
       <c r="J30" t="n">
-        <v>768.04</v>
+        <v>739.025</v>
       </c>
     </row>
     <row r="31">
@@ -2523,10 +2523,10 @@
         <v>677.990938717266</v>
       </c>
       <c r="I31" t="n">
-        <v>606.975</v>
+        <v>620</v>
       </c>
       <c r="J31" t="n">
-        <v>785.01</v>
+        <v>763.05</v>
       </c>
     </row>
     <row r="32">
@@ -2555,10 +2555,10 @@
         <v>2113.65182226215</v>
       </c>
       <c r="I32" t="n">
-        <v>1665.99</v>
+        <v>1707</v>
       </c>
       <c r="J32" t="n">
-        <v>2454.015</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="33">
@@ -2587,10 +2587,10 @@
         <v>2154.53320112379</v>
       </c>
       <c r="I33" t="n">
-        <v>1526</v>
+        <v>1575.95</v>
       </c>
       <c r="J33" t="n">
-        <v>2508</v>
+        <v>2456.05</v>
       </c>
     </row>
     <row r="34">
@@ -2619,10 +2619,10 @@
         <v>2226.05984618958</v>
       </c>
       <c r="I34" t="n">
-        <v>2075.95</v>
+        <v>2098</v>
       </c>
       <c r="J34" t="n">
-        <v>2598.025</v>
+        <v>2569</v>
       </c>
     </row>
     <row r="35">
@@ -2651,10 +2651,10 @@
         <v>515.65123076019</v>
       </c>
       <c r="I35" t="n">
-        <v>450.995</v>
+        <v>468</v>
       </c>
       <c r="J35" t="n">
-        <v>592.005</v>
+        <v>578.025</v>
       </c>
     </row>
     <row r="36">
@@ -2683,10 +2683,10 @@
         <v>476.22251714223</v>
       </c>
       <c r="I36" t="n">
-        <v>412</v>
+        <v>428</v>
       </c>
       <c r="J36" t="n">
-        <v>552.01</v>
+        <v>538.025</v>
       </c>
     </row>
     <row r="37">
@@ -2715,10 +2715,10 @@
         <v>531.59788413992</v>
       </c>
       <c r="I37" t="n">
-        <v>398.995</v>
+        <v>412</v>
       </c>
       <c r="J37" t="n">
-        <v>660.015</v>
+        <v>647.025</v>
       </c>
     </row>
     <row r="38">
@@ -2747,10 +2747,10 @@
         <v>324.196939502816</v>
       </c>
       <c r="I38" t="n">
-        <v>246.985</v>
+        <v>263.975</v>
       </c>
       <c r="J38" t="n">
-        <v>550.02</v>
+        <v>520.025</v>
       </c>
     </row>
     <row r="39">
@@ -2779,10 +2779,10 @@
         <v>309.672077267295</v>
       </c>
       <c r="I39" t="n">
-        <v>230</v>
+        <v>252.975</v>
       </c>
       <c r="J39" t="n">
-        <v>365</v>
+        <v>350.025</v>
       </c>
     </row>
     <row r="40">
@@ -2811,10 +2811,10 @@
         <v>302.153460806933</v>
       </c>
       <c r="I40" t="n">
-        <v>247.965</v>
+        <v>260</v>
       </c>
       <c r="J40" t="n">
-        <v>373.005</v>
+        <v>361</v>
       </c>
     </row>
     <row r="41">
@@ -2843,10 +2843,10 @@
         <v>375.939508341633</v>
       </c>
       <c r="I41" t="n">
-        <v>308.975</v>
+        <v>315.975</v>
       </c>
       <c r="J41" t="n">
-        <v>510.005</v>
+        <v>486.05</v>
       </c>
     </row>
     <row r="42">
@@ -2875,10 +2875,10 @@
         <v>381.742135641892</v>
       </c>
       <c r="I42" t="n">
-        <v>274.995</v>
+        <v>295.975</v>
       </c>
       <c r="J42" t="n">
-        <v>557</v>
+        <v>519</v>
       </c>
     </row>
     <row r="43">
@@ -2907,10 +2907,10 @@
         <v>402.870009432673</v>
       </c>
       <c r="I43" t="n">
-        <v>246</v>
+        <v>269.975</v>
       </c>
       <c r="J43" t="n">
-        <v>486.02</v>
+        <v>468</v>
       </c>
     </row>
     <row r="44">
@@ -2939,10 +2939,10 @@
         <v>498.920788646268</v>
       </c>
       <c r="I44" t="n">
-        <v>405</v>
+        <v>427</v>
       </c>
       <c r="J44" t="n">
-        <v>749.025</v>
+        <v>720.025</v>
       </c>
     </row>
     <row r="45">
@@ -2971,10 +2971,10 @@
         <v>445.25042907992</v>
       </c>
       <c r="I45" t="n">
-        <v>389.985</v>
+        <v>396.975</v>
       </c>
       <c r="J45" t="n">
-        <v>534.005</v>
+        <v>515.025</v>
       </c>
     </row>
     <row r="46">
@@ -3003,10 +3003,10 @@
         <v>421.284233876483</v>
       </c>
       <c r="I46" t="n">
-        <v>355</v>
+        <v>370</v>
       </c>
       <c r="J46" t="n">
-        <v>549.02</v>
+        <v>531.05</v>
       </c>
     </row>
     <row r="47">
@@ -3035,10 +3035,10 @@
         <v>1913.32467211328</v>
       </c>
       <c r="I47" t="n">
-        <v>1729.96</v>
+        <v>1766</v>
       </c>
       <c r="J47" t="n">
-        <v>2117.005</v>
+        <v>2085.175</v>
       </c>
     </row>
     <row r="48">
@@ -3067,10 +3067,10 @@
         <v>1943.23713821474</v>
       </c>
       <c r="I48" t="n">
-        <v>1666.96</v>
+        <v>1705.85</v>
       </c>
       <c r="J48" t="n">
-        <v>2096.035</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="49">
@@ -3099,10 +3099,10 @@
         <v>1975.0053340175</v>
       </c>
       <c r="I49" t="n">
-        <v>1848.98</v>
+        <v>1874</v>
       </c>
       <c r="J49" t="n">
-        <v>2129</v>
+        <v>2079.075</v>
       </c>
     </row>
     <row r="50">
@@ -3131,10 +3131,10 @@
         <v>577.307719682503</v>
       </c>
       <c r="I50" t="n">
-        <v>454.95</v>
+        <v>473.975</v>
       </c>
       <c r="J50" t="n">
-        <v>1111.03</v>
+        <v>1059.05</v>
       </c>
     </row>
     <row r="51">
@@ -3163,10 +3163,10 @@
         <v>547.800294311022</v>
       </c>
       <c r="I51" t="n">
-        <v>432.99</v>
+        <v>457.95</v>
       </c>
       <c r="J51" t="n">
-        <v>643.005</v>
+        <v>626</v>
       </c>
     </row>
     <row r="52">
@@ -3195,10 +3195,10 @@
         <v>577.809230059367</v>
       </c>
       <c r="I52" t="n">
-        <v>469</v>
+        <v>484.975</v>
       </c>
       <c r="J52" t="n">
-        <v>671.015</v>
+        <v>653</v>
       </c>
     </row>
     <row r="53">
@@ -3227,10 +3227,10 @@
         <v>71.3452534613719</v>
       </c>
       <c r="I53" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="J53" t="n">
-        <v>124.005</v>
+        <v>102.05</v>
       </c>
     </row>
     <row r="54">
@@ -3259,10 +3259,10 @@
         <v>76.9153967059797</v>
       </c>
       <c r="I54" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="J54" t="n">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="55">
@@ -3291,10 +3291,10 @@
         <v>96.2519410916742</v>
       </c>
       <c r="I55" t="n">
-        <v>68.97</v>
+        <v>76</v>
       </c>
       <c r="J55" t="n">
-        <v>123.005</v>
+        <v>118</v>
       </c>
     </row>
     <row r="56">
@@ -3323,10 +3323,10 @@
         <v>187.352600952568</v>
       </c>
       <c r="I56" t="n">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="J56" t="n">
-        <v>239</v>
+        <v>232.025</v>
       </c>
     </row>
     <row r="57">
@@ -3355,10 +3355,10 @@
         <v>195.788373942853</v>
       </c>
       <c r="I57" t="n">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="J57" t="n">
-        <v>247.015</v>
+        <v>241</v>
       </c>
     </row>
     <row r="58">
@@ -3387,10 +3387,10 @@
         <v>197.786216252545</v>
       </c>
       <c r="I58" t="n">
-        <v>150</v>
+        <v>162.975</v>
       </c>
       <c r="J58" t="n">
-        <v>261.005</v>
+        <v>246</v>
       </c>
     </row>
     <row r="59">
@@ -3419,10 +3419,10 @@
         <v>249.344679950795</v>
       </c>
       <c r="I59" t="n">
-        <v>136.995</v>
+        <v>146.975</v>
       </c>
       <c r="J59" t="n">
-        <v>314</v>
+        <v>301</v>
       </c>
     </row>
     <row r="60">
@@ -3451,10 +3451,10 @@
         <v>264.99920596178</v>
       </c>
       <c r="I60" t="n">
-        <v>213.97</v>
+        <v>224.975</v>
       </c>
       <c r="J60" t="n">
-        <v>341.015</v>
+        <v>327</v>
       </c>
     </row>
     <row r="61">
@@ -3483,10 +3483,10 @@
         <v>260.218842491923</v>
       </c>
       <c r="I61" t="n">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="J61" t="n">
-        <v>313.005</v>
+        <v>302</v>
       </c>
     </row>
     <row r="62">
@@ -3515,10 +3515,10 @@
         <v>780.941470485607</v>
       </c>
       <c r="I62" t="n">
-        <v>625</v>
+        <v>664.975</v>
       </c>
       <c r="J62" t="n">
-        <v>1020.035</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="63">
@@ -3547,10 +3547,10 @@
         <v>827.653391185134</v>
       </c>
       <c r="I63" t="n">
-        <v>598</v>
+        <v>606.975</v>
       </c>
       <c r="J63" t="n">
-        <v>963</v>
+        <v>931.025</v>
       </c>
     </row>
     <row r="64">
@@ -3579,10 +3579,10 @@
         <v>861.56371513659</v>
       </c>
       <c r="I64" t="n">
-        <v>763.89</v>
+        <v>784.975</v>
       </c>
       <c r="J64" t="n">
-        <v>1015.015</v>
+        <v>987</v>
       </c>
     </row>
     <row r="65">
@@ -3611,10 +3611,10 @@
         <v>230.993968663464</v>
       </c>
       <c r="I65" t="n">
-        <v>155</v>
+        <v>168.95</v>
       </c>
       <c r="J65" t="n">
-        <v>290.01</v>
+        <v>281.025</v>
       </c>
     </row>
     <row r="66">
@@ -3643,10 +3643,10 @@
         <v>262.457223214797</v>
       </c>
       <c r="I66" t="n">
-        <v>194.99</v>
+        <v>204.975</v>
       </c>
       <c r="J66" t="n">
-        <v>314</v>
+        <v>303</v>
       </c>
     </row>
     <row r="67">
@@ -3675,10 +3675,10 @@
         <v>275.335935305542</v>
       </c>
       <c r="I67" t="n">
-        <v>230.98</v>
+        <v>241</v>
       </c>
       <c r="J67" t="n">
-        <v>337</v>
+        <v>319</v>
       </c>
     </row>
     <row r="68">
@@ -3707,10 +3707,10 @@
         <v>206.819771823235</v>
       </c>
       <c r="I68" t="n">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="J68" t="n">
-        <v>278.01</v>
+        <v>261.025</v>
       </c>
     </row>
     <row r="69">
@@ -3739,10 +3739,10 @@
         <v>227.434294944147</v>
       </c>
       <c r="I69" t="n">
-        <v>111</v>
+        <v>122.975</v>
       </c>
       <c r="J69" t="n">
-        <v>339</v>
+        <v>305</v>
       </c>
     </row>
     <row r="70">
@@ -3771,10 +3771,10 @@
         <v>233.577289134084</v>
       </c>
       <c r="I70" t="n">
-        <v>188</v>
+        <v>189.975</v>
       </c>
       <c r="J70" t="n">
-        <v>395</v>
+        <v>373</v>
       </c>
     </row>
     <row r="71">
@@ -3803,10 +3803,10 @@
         <v>182.228824038915</v>
       </c>
       <c r="I71" t="n">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="J71" t="n">
-        <v>552</v>
+        <v>516</v>
       </c>
     </row>
     <row r="72">
@@ -3835,10 +3835,10 @@
         <v>168.231853823515</v>
       </c>
       <c r="I72" t="n">
-        <v>96</v>
+        <v>103.975</v>
       </c>
       <c r="J72" t="n">
-        <v>243</v>
+        <v>219</v>
       </c>
     </row>
     <row r="73">
@@ -3867,10 +3867,10 @@
         <v>171.378045084302</v>
       </c>
       <c r="I73" t="n">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="J73" t="n">
-        <v>258</v>
+        <v>241</v>
       </c>
     </row>
     <row r="74">
@@ -3899,10 +3899,10 @@
         <v>104.326214564748</v>
       </c>
       <c r="I74" t="n">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J74" t="n">
-        <v>135.005</v>
+        <v>128</v>
       </c>
     </row>
     <row r="75">
@@ -3931,10 +3931,10 @@
         <v>93.7124328466881</v>
       </c>
       <c r="I75" t="n">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="J75" t="n">
-        <v>125.01</v>
+        <v>116</v>
       </c>
     </row>
     <row r="76">
@@ -3963,10 +3963,10 @@
         <v>102.764912145383</v>
       </c>
       <c r="I76" t="n">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="J76" t="n">
-        <v>136.005</v>
+        <v>128.025</v>
       </c>
     </row>
     <row r="77">
@@ -3995,10 +3995,10 @@
         <v>186.747373782885</v>
       </c>
       <c r="I77" t="n">
-        <v>138</v>
+        <v>147.975</v>
       </c>
       <c r="J77" t="n">
-        <v>364</v>
+        <v>335.05</v>
       </c>
     </row>
     <row r="78">
@@ -4027,10 +4027,10 @@
         <v>153.293661198133</v>
       </c>
       <c r="I78" t="n">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="J78" t="n">
-        <v>201.015</v>
+        <v>182</v>
       </c>
     </row>
     <row r="79">
@@ -4059,10 +4059,10 @@
         <v>143.251381967645</v>
       </c>
       <c r="I79" t="n">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="J79" t="n">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="80">
@@ -4091,10 +4091,10 @@
         <v>67.0496225175087</v>
       </c>
       <c r="I80" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J80" t="n">
-        <v>193</v>
+        <v>174.025</v>
       </c>
     </row>
     <row r="81">
@@ -4123,10 +4123,10 @@
         <v>55.6278323817299</v>
       </c>
       <c r="I81" t="n">
-        <v>36.99</v>
+        <v>40</v>
       </c>
       <c r="J81" t="n">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="82">
@@ -4155,10 +4155,10 @@
         <v>64.0210680155258</v>
       </c>
       <c r="I82" t="n">
-        <v>42</v>
+        <v>45.975</v>
       </c>
       <c r="J82" t="n">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="83">
@@ -4187,10 +4187,10 @@
         <v>14.1093444380096</v>
       </c>
       <c r="I83" t="n">
-        <v>0.995000000000005</v>
+        <v>3</v>
       </c>
       <c r="J83" t="n">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="84">
@@ -4219,10 +4219,10 @@
         <v>8.66632617515746</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="n">
-        <v>164</v>
+        <v>148.025</v>
       </c>
     </row>
     <row r="85">
@@ -4254,7 +4254,7 @@
         <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>17</v>
+        <v>14.025</v>
       </c>
     </row>
     <row r="86">
@@ -4283,10 +4283,10 @@
         <v>68.1268616927978</v>
       </c>
       <c r="I86" t="n">
-        <v>41.995</v>
+        <v>47</v>
       </c>
       <c r="J86" t="n">
-        <v>123</v>
+        <v>111.025</v>
       </c>
     </row>
     <row r="87">
@@ -4315,10 +4315,10 @@
         <v>98.4845745390192</v>
       </c>
       <c r="I87" t="n">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="J87" t="n">
-        <v>184</v>
+        <v>168</v>
       </c>
     </row>
     <row r="88">
@@ -4347,10 +4347,10 @@
         <v>80.1321579971393</v>
       </c>
       <c r="I88" t="n">
-        <v>24</v>
+        <v>26.975</v>
       </c>
       <c r="J88" t="n">
-        <v>280.02</v>
+        <v>257.025</v>
       </c>
     </row>
     <row r="89">
@@ -4379,10 +4379,10 @@
         <v>46.4850882930287</v>
       </c>
       <c r="I89" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J89" t="n">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="90">
@@ -4411,10 +4411,10 @@
         <v>56.8897617647904</v>
       </c>
       <c r="I90" t="n">
-        <v>33.995</v>
+        <v>37</v>
       </c>
       <c r="J90" t="n">
-        <v>80.005</v>
+        <v>74</v>
       </c>
     </row>
     <row r="91">
@@ -4443,10 +4443,10 @@
         <v>42.8398285414209</v>
       </c>
       <c r="I91" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J91" t="n">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="92">
@@ -4475,10 +4475,10 @@
         <v>148.035069017228</v>
       </c>
       <c r="I92" t="n">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="J92" t="n">
-        <v>272</v>
+        <v>251</v>
       </c>
     </row>
     <row r="93">
@@ -4507,10 +4507,10 @@
         <v>142.321771899169</v>
       </c>
       <c r="I93" t="n">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="J93" t="n">
-        <v>176.005</v>
+        <v>171</v>
       </c>
     </row>
     <row r="94">
@@ -4539,10 +4539,10 @@
         <v>165.713159057211</v>
       </c>
       <c r="I94" t="n">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="J94" t="n">
-        <v>199.005</v>
+        <v>191</v>
       </c>
     </row>
     <row r="95">
@@ -4571,10 +4571,10 @@
         <v>210.506542721669</v>
       </c>
       <c r="I95" t="n">
-        <v>151.975</v>
+        <v>165.975</v>
       </c>
       <c r="J95" t="n">
-        <v>333</v>
+        <v>324.025</v>
       </c>
     </row>
     <row r="96">
@@ -4603,10 +4603,10 @@
         <v>188.334213217936</v>
       </c>
       <c r="I96" t="n">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="J96" t="n">
-        <v>251</v>
+        <v>236.025</v>
       </c>
     </row>
     <row r="97">
@@ -4635,10 +4635,10 @@
         <v>189.009053027173</v>
       </c>
       <c r="I97" t="n">
-        <v>121</v>
+        <v>136.975</v>
       </c>
       <c r="J97" t="n">
-        <v>241</v>
+        <v>229</v>
       </c>
     </row>
     <row r="98">
@@ -4667,10 +4667,10 @@
         <v>131.701808339714</v>
       </c>
       <c r="I98" t="n">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="J98" t="n">
-        <v>164.02</v>
+        <v>159</v>
       </c>
     </row>
     <row r="99">
@@ -4699,10 +4699,10 @@
         <v>124.587744944655</v>
       </c>
       <c r="I99" t="n">
-        <v>95.995</v>
+        <v>101</v>
       </c>
       <c r="J99" t="n">
-        <v>165</v>
+        <v>152.025</v>
       </c>
     </row>
     <row r="100">
@@ -4731,10 +4731,10 @@
         <v>134.615441448174</v>
       </c>
       <c r="I100" t="n">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="J100" t="n">
-        <v>175</v>
+        <v>164.025</v>
       </c>
     </row>
     <row r="101">
@@ -4763,10 +4763,10 @@
         <v>191.073128718921</v>
       </c>
       <c r="I101" t="n">
-        <v>117</v>
+        <v>127.975</v>
       </c>
       <c r="J101" t="n">
-        <v>247.005</v>
+        <v>236</v>
       </c>
     </row>
     <row r="102">
@@ -4795,10 +4795,10 @@
         <v>155.717638873315</v>
       </c>
       <c r="I102" t="n">
-        <v>92.99</v>
+        <v>101</v>
       </c>
       <c r="J102" t="n">
-        <v>324.005</v>
+        <v>305.025</v>
       </c>
     </row>
     <row r="103">
@@ -4827,10 +4827,10 @@
         <v>171.70347397536</v>
       </c>
       <c r="I103" t="n">
-        <v>68.995</v>
+        <v>78</v>
       </c>
       <c r="J103" t="n">
-        <v>412.02</v>
+        <v>400.025</v>
       </c>
     </row>
     <row r="104">
@@ -4859,10 +4859,10 @@
         <v>189.019694580685</v>
       </c>
       <c r="I104" t="n">
-        <v>153.985</v>
+        <v>161</v>
       </c>
       <c r="J104" t="n">
-        <v>227.025</v>
+        <v>218</v>
       </c>
     </row>
     <row r="105">
@@ -4891,10 +4891,10 @@
         <v>178.096222087369</v>
       </c>
       <c r="I105" t="n">
-        <v>142.995</v>
+        <v>152</v>
       </c>
       <c r="J105" t="n">
-        <v>218.005</v>
+        <v>210</v>
       </c>
     </row>
     <row r="106">
@@ -4923,10 +4923,10 @@
         <v>203.884526151683</v>
       </c>
       <c r="I106" t="n">
-        <v>143.995</v>
+        <v>154</v>
       </c>
       <c r="J106" t="n">
-        <v>257</v>
+        <v>246</v>
       </c>
     </row>
     <row r="107">
@@ -4955,10 +4955,10 @@
         <v>439.002809834446</v>
       </c>
       <c r="I107" t="n">
-        <v>360.995</v>
+        <v>375.975</v>
       </c>
       <c r="J107" t="n">
-        <v>508.025</v>
+        <v>489</v>
       </c>
     </row>
     <row r="108">
@@ -4987,10 +4987,10 @@
         <v>421.155922051063</v>
       </c>
       <c r="I108" t="n">
-        <v>360.985</v>
+        <v>365.975</v>
       </c>
       <c r="J108" t="n">
-        <v>536.01</v>
+        <v>501.025</v>
       </c>
     </row>
     <row r="109">
@@ -5019,10 +5019,10 @@
         <v>381.657417764913</v>
       </c>
       <c r="I109" t="n">
-        <v>307</v>
+        <v>327</v>
       </c>
       <c r="J109" t="n">
-        <v>570.035</v>
+        <v>558.025</v>
       </c>
     </row>
     <row r="110">
@@ -5051,10 +5051,10 @@
         <v>94.7983479598538</v>
       </c>
       <c r="I110" t="n">
-        <v>71.995</v>
+        <v>75</v>
       </c>
       <c r="J110" t="n">
-        <v>119.01</v>
+        <v>115</v>
       </c>
     </row>
     <row r="111">
@@ -5083,10 +5083,10 @@
         <v>105.496587232644</v>
       </c>
       <c r="I111" t="n">
-        <v>74.98</v>
+        <v>81</v>
       </c>
       <c r="J111" t="n">
-        <v>136.015</v>
+        <v>128.025</v>
       </c>
     </row>
     <row r="112">
@@ -5115,10 +5115,10 @@
         <v>92.5141991541625</v>
       </c>
       <c r="I112" t="n">
-        <v>60.99</v>
+        <v>66</v>
       </c>
       <c r="J112" t="n">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="113">
@@ -5147,10 +5147,10 @@
         <v>60.5944974814849</v>
       </c>
       <c r="I113" t="n">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="J113" t="n">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="114">
@@ -5179,10 +5179,10 @@
         <v>73.8324269204009</v>
       </c>
       <c r="I114" t="n">
-        <v>47.995</v>
+        <v>53</v>
       </c>
       <c r="J114" t="n">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="115">
@@ -5211,10 +5211,10 @@
         <v>79.5831985475966</v>
       </c>
       <c r="I115" t="n">
-        <v>48.995</v>
+        <v>57.975</v>
       </c>
       <c r="J115" t="n">
-        <v>115</v>
+        <v>102</v>
       </c>
     </row>
     <row r="116">
@@ -5243,10 +5243,10 @@
         <v>195.871906104818</v>
       </c>
       <c r="I116" t="n">
-        <v>148.995</v>
+        <v>157</v>
       </c>
       <c r="J116" t="n">
-        <v>272</v>
+        <v>261</v>
       </c>
     </row>
     <row r="117">
@@ -5275,10 +5275,10 @@
         <v>169.249625333771</v>
       </c>
       <c r="I117" t="n">
-        <v>127.99</v>
+        <v>140</v>
       </c>
       <c r="J117" t="n">
-        <v>249.03</v>
+        <v>235.025</v>
       </c>
     </row>
     <row r="118">
@@ -5307,10 +5307,10 @@
         <v>153.614115869526</v>
       </c>
       <c r="I118" t="n">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="J118" t="n">
-        <v>188.005</v>
+        <v>187</v>
       </c>
     </row>
     <row r="119">
@@ -5339,10 +5339,10 @@
         <v>382.521555905471</v>
       </c>
       <c r="I119" t="n">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="J119" t="n">
-        <v>441.015</v>
+        <v>428.025</v>
       </c>
     </row>
     <row r="120">
@@ -5371,10 +5371,10 @@
         <v>372.54932987435</v>
       </c>
       <c r="I120" t="n">
-        <v>303</v>
+        <v>320.975</v>
       </c>
       <c r="J120" t="n">
-        <v>478</v>
+        <v>447.05</v>
       </c>
     </row>
     <row r="121">
@@ -5403,10 +5403,10 @@
         <v>369.224130107238</v>
       </c>
       <c r="I121" t="n">
-        <v>302</v>
+        <v>316</v>
       </c>
       <c r="J121" t="n">
-        <v>509.06</v>
+        <v>483</v>
       </c>
     </row>
     <row r="122">
@@ -5435,10 +5435,10 @@
         <v>109.534601042291</v>
       </c>
       <c r="I122" t="n">
-        <v>85.975</v>
+        <v>89</v>
       </c>
       <c r="J122" t="n">
-        <v>145.005</v>
+        <v>136</v>
       </c>
     </row>
     <row r="123">
@@ -5467,10 +5467,10 @@
         <v>122.025855573804</v>
       </c>
       <c r="I123" t="n">
-        <v>79.995</v>
+        <v>89</v>
       </c>
       <c r="J123" t="n">
-        <v>158.04</v>
+        <v>149</v>
       </c>
     </row>
     <row r="124">
@@ -5499,10 +5499,10 @@
         <v>116.852754230875</v>
       </c>
       <c r="I124" t="n">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="J124" t="n">
-        <v>175.01</v>
+        <v>161</v>
       </c>
     </row>
     <row r="125">
@@ -5531,10 +5531,10 @@
         <v>118.482372566049</v>
       </c>
       <c r="I125" t="n">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="J125" t="n">
-        <v>293.015</v>
+        <v>272.025</v>
       </c>
     </row>
     <row r="126">
@@ -5563,10 +5563,10 @@
         <v>120.887351997037</v>
       </c>
       <c r="I126" t="n">
-        <v>53.99</v>
+        <v>58.975</v>
       </c>
       <c r="J126" t="n">
-        <v>188.03</v>
+        <v>172.025</v>
       </c>
     </row>
     <row r="127">
@@ -5595,10 +5595,10 @@
         <v>189.762784312936</v>
       </c>
       <c r="I127" t="n">
-        <v>87.995</v>
+        <v>93.975</v>
       </c>
       <c r="J127" t="n">
-        <v>250.015</v>
+        <v>235.025</v>
       </c>
     </row>
     <row r="128">
@@ -5627,10 +5627,10 @@
         <v>48.1836810556862</v>
       </c>
       <c r="I128" t="n">
-        <v>20.995</v>
+        <v>25</v>
       </c>
       <c r="J128" t="n">
-        <v>69.01</v>
+        <v>67.025</v>
       </c>
     </row>
     <row r="129">
@@ -5659,10 +5659,10 @@
         <v>55.8183755891191</v>
       </c>
       <c r="I129" t="n">
-        <v>35.99</v>
+        <v>43</v>
       </c>
       <c r="J129" t="n">
-        <v>77.01</v>
+        <v>73</v>
       </c>
     </row>
     <row r="130">
@@ -5691,10 +5691,10 @@
         <v>71.2415224236876</v>
       </c>
       <c r="I130" t="n">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="J130" t="n">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="131">
@@ -5723,10 +5723,10 @@
         <v>236.009322231878</v>
       </c>
       <c r="I131" t="n">
-        <v>136</v>
+        <v>152.95</v>
       </c>
       <c r="J131" t="n">
-        <v>359</v>
+        <v>334</v>
       </c>
     </row>
     <row r="132">
@@ -5755,10 +5755,10 @@
         <v>284.75028260709</v>
       </c>
       <c r="I132" t="n">
-        <v>113.985</v>
+        <v>125.975</v>
       </c>
       <c r="J132" t="n">
-        <v>380.01</v>
+        <v>368</v>
       </c>
     </row>
     <row r="133">
@@ -5787,10 +5787,10 @@
         <v>310.790100984293</v>
       </c>
       <c r="I133" t="n">
-        <v>225.98</v>
+        <v>245.975</v>
       </c>
       <c r="J133" t="n">
-        <v>443</v>
+        <v>421</v>
       </c>
     </row>
     <row r="134">
@@ -5819,10 +5819,10 @@
         <v>141.810912537777</v>
       </c>
       <c r="I134" t="n">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="J134" t="n">
-        <v>402.01</v>
+        <v>391</v>
       </c>
     </row>
     <row r="135">
@@ -5851,10 +5851,10 @@
         <v>133.481960236966</v>
       </c>
       <c r="I135" t="n">
-        <v>73.99</v>
+        <v>80</v>
       </c>
       <c r="J135" t="n">
-        <v>201</v>
+        <v>192</v>
       </c>
     </row>
     <row r="136">
@@ -5883,10 +5883,10 @@
         <v>156.319607135123</v>
       </c>
       <c r="I136" t="n">
-        <v>58.995</v>
+        <v>64.975</v>
       </c>
       <c r="J136" t="n">
-        <v>240.025</v>
+        <v>227</v>
       </c>
     </row>
     <row r="137">
@@ -5915,10 +5915,10 @@
         <v>389.21055925896</v>
       </c>
       <c r="I137" t="n">
-        <v>322</v>
+        <v>339</v>
       </c>
       <c r="J137" t="n">
-        <v>447</v>
+        <v>433.025</v>
       </c>
     </row>
     <row r="138">
@@ -5947,10 +5947,10 @@
         <v>377.077836787561</v>
       </c>
       <c r="I138" t="n">
-        <v>300</v>
+        <v>328</v>
       </c>
       <c r="J138" t="n">
-        <v>473</v>
+        <v>448</v>
       </c>
     </row>
     <row r="139">
@@ -5979,10 +5979,10 @@
         <v>356.284154768283</v>
       </c>
       <c r="I139" t="n">
-        <v>296.995</v>
+        <v>305</v>
       </c>
       <c r="J139" t="n">
-        <v>497.035</v>
+        <v>486.025</v>
       </c>
     </row>
     <row r="140">
@@ -6011,10 +6011,10 @@
         <v>342.464376773238</v>
       </c>
       <c r="I140" t="n">
-        <v>270.97</v>
+        <v>279</v>
       </c>
       <c r="J140" t="n">
-        <v>404</v>
+        <v>392.025</v>
       </c>
     </row>
     <row r="141">
@@ -6043,10 +6043,10 @@
         <v>360.325476311846</v>
       </c>
       <c r="I141" t="n">
-        <v>268.995</v>
+        <v>279.975</v>
       </c>
       <c r="J141" t="n">
-        <v>449.005</v>
+        <v>431.025</v>
       </c>
     </row>
     <row r="142">
@@ -6075,10 +6075,10 @@
         <v>330.120201089013</v>
       </c>
       <c r="I142" t="n">
-        <v>260.985</v>
+        <v>271</v>
       </c>
       <c r="J142" t="n">
-        <v>485.04</v>
+        <v>477</v>
       </c>
     </row>
     <row r="143">
@@ -6107,10 +6107,10 @@
         <v>165.507902654589</v>
       </c>
       <c r="I143" t="n">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="J143" t="n">
-        <v>239</v>
+        <v>225.025</v>
       </c>
     </row>
     <row r="144">
@@ -6139,10 +6139,10 @@
         <v>151.476328572281</v>
       </c>
       <c r="I144" t="n">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="J144" t="n">
-        <v>191</v>
+        <v>180</v>
       </c>
     </row>
     <row r="145">
@@ -6171,10 +6171,10 @@
         <v>133.974462922066</v>
       </c>
       <c r="I145" t="n">
-        <v>102.995</v>
+        <v>109</v>
       </c>
       <c r="J145" t="n">
-        <v>181.015</v>
+        <v>171.025</v>
       </c>
     </row>
     <row r="146">
@@ -6203,10 +6203,10 @@
         <v>1157.67305975874</v>
       </c>
       <c r="I146" t="n">
-        <v>942</v>
+        <v>984.95</v>
       </c>
       <c r="J146" t="n">
-        <v>1328.015</v>
+        <v>1303.075</v>
       </c>
     </row>
     <row r="147">
@@ -6235,10 +6235,10 @@
         <v>1140.03171968405</v>
       </c>
       <c r="I147" t="n">
-        <v>895</v>
+        <v>923.95</v>
       </c>
       <c r="J147" t="n">
-        <v>1448</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="148">
@@ -6267,10 +6267,10 @@
         <v>1173.2188439382</v>
       </c>
       <c r="I148" t="n">
-        <v>970.96</v>
+        <v>998.95</v>
       </c>
       <c r="J148" t="n">
-        <v>1556</v>
+        <v>1504.025</v>
       </c>
     </row>
     <row r="149">
@@ -6299,10 +6299,10 @@
         <v>704.727341081115</v>
       </c>
       <c r="I149" t="n">
-        <v>541.995</v>
+        <v>568.925</v>
       </c>
       <c r="J149" t="n">
-        <v>969.015</v>
+        <v>942.075</v>
       </c>
     </row>
     <row r="150">
@@ -6331,10 +6331,10 @@
         <v>722.338122538377</v>
       </c>
       <c r="I150" t="n">
-        <v>504.995</v>
+        <v>520.95</v>
       </c>
       <c r="J150" t="n">
-        <v>839</v>
+        <v>816.025</v>
       </c>
     </row>
     <row r="151">
@@ -6363,10 +6363,10 @@
         <v>779.493208702627</v>
       </c>
       <c r="I151" t="n">
-        <v>696.965</v>
+        <v>725.975</v>
       </c>
       <c r="J151" t="n">
-        <v>865.02</v>
+        <v>845</v>
       </c>
     </row>
     <row r="152">
@@ -6395,10 +6395,10 @@
         <v>89.5032505518848</v>
       </c>
       <c r="I152" t="n">
-        <v>54.995</v>
+        <v>63</v>
       </c>
       <c r="J152" t="n">
-        <v>132.015</v>
+        <v>120.025</v>
       </c>
     </row>
     <row r="153">
@@ -6427,10 +6427,10 @@
         <v>61.1873421216088</v>
       </c>
       <c r="I153" t="n">
-        <v>31.995</v>
+        <v>36</v>
       </c>
       <c r="J153" t="n">
-        <v>125</v>
+        <v>110.025</v>
       </c>
     </row>
     <row r="154">
@@ -6459,10 +6459,10 @@
         <v>51.3020333972048</v>
       </c>
       <c r="I154" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J154" t="n">
-        <v>132.015</v>
+        <v>121</v>
       </c>
     </row>
     <row r="155">
@@ -6491,10 +6491,10 @@
         <v>249.550448251265</v>
       </c>
       <c r="I155" t="n">
-        <v>164.995</v>
+        <v>191</v>
       </c>
       <c r="J155" t="n">
-        <v>359</v>
+        <v>347</v>
       </c>
     </row>
     <row r="156">
@@ -6523,10 +6523,10 @@
         <v>232.592927911736</v>
       </c>
       <c r="I156" t="n">
-        <v>148</v>
+        <v>170.975</v>
       </c>
       <c r="J156" t="n">
-        <v>362.05</v>
+        <v>356</v>
       </c>
     </row>
     <row r="157">
@@ -6555,10 +6555,10 @@
         <v>219.363454523766</v>
       </c>
       <c r="I157" t="n">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="J157" t="n">
-        <v>294.005</v>
+        <v>276</v>
       </c>
     </row>
     <row r="158">
@@ -6587,10 +6587,10 @@
         <v>126.22056740945</v>
       </c>
       <c r="I158" t="n">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="J158" t="n">
-        <v>227</v>
+        <v>206.025</v>
       </c>
     </row>
     <row r="159">
@@ -6619,10 +6619,10 @@
         <v>138.249888897092</v>
       </c>
       <c r="I159" t="n">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="J159" t="n">
-        <v>195</v>
+        <v>182</v>
       </c>
     </row>
     <row r="160">
@@ -6651,10 +6651,10 @@
         <v>173.255806610943</v>
       </c>
       <c r="I160" t="n">
-        <v>135.975</v>
+        <v>143</v>
       </c>
       <c r="J160" t="n">
-        <v>213.005</v>
+        <v>207</v>
       </c>
     </row>
     <row r="161">
@@ -6683,10 +6683,10 @@
         <v>74.063355451467</v>
       </c>
       <c r="I161" t="n">
-        <v>35.995</v>
+        <v>43</v>
       </c>
       <c r="J161" t="n">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="162">
@@ -6715,10 +6715,10 @@
         <v>54.6668596450492</v>
       </c>
       <c r="I162" t="n">
-        <v>21.995</v>
+        <v>28</v>
       </c>
       <c r="J162" t="n">
-        <v>116.005</v>
+        <v>110</v>
       </c>
     </row>
     <row r="163">
@@ -6747,10 +6747,10 @@
         <v>53.8730446864642</v>
       </c>
       <c r="I163" t="n">
-        <v>12.995</v>
+        <v>16</v>
       </c>
       <c r="J163" t="n">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="164">
@@ -6779,10 +6779,10 @@
         <v>363.216110679181</v>
       </c>
       <c r="I164" t="n">
-        <v>274.98</v>
+        <v>288.975</v>
       </c>
       <c r="J164" t="n">
-        <v>468</v>
+        <v>439.05</v>
       </c>
     </row>
     <row r="165">
@@ -6811,10 +6811,10 @@
         <v>388.808990600193</v>
       </c>
       <c r="I165" t="n">
-        <v>296</v>
+        <v>317</v>
       </c>
       <c r="J165" t="n">
-        <v>487</v>
+        <v>462.025</v>
       </c>
     </row>
     <row r="166">
@@ -6843,10 +6843,10 @@
         <v>420.842067138161</v>
       </c>
       <c r="I166" t="n">
-        <v>284</v>
+        <v>301.975</v>
       </c>
       <c r="J166" t="n">
-        <v>494</v>
+        <v>483</v>
       </c>
     </row>
     <row r="167">
@@ -6875,10 +6875,10 @@
         <v>124.043659351715</v>
       </c>
       <c r="I167" t="n">
-        <v>80</v>
+        <v>91.975</v>
       </c>
       <c r="J167" t="n">
-        <v>234</v>
+        <v>214</v>
       </c>
     </row>
     <row r="168">
@@ -6907,10 +6907,10 @@
         <v>82.3187566747838</v>
       </c>
       <c r="I168" t="n">
-        <v>51.995</v>
+        <v>58</v>
       </c>
       <c r="J168" t="n">
-        <v>165.015</v>
+        <v>158</v>
       </c>
     </row>
     <row r="169">
@@ -6939,10 +6939,10 @@
         <v>95.1411756983665</v>
       </c>
       <c r="I169" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J169" t="n">
-        <v>175</v>
+        <v>162.025</v>
       </c>
     </row>
     <row r="170">
@@ -6971,10 +6971,10 @@
         <v>89.3926346751605</v>
       </c>
       <c r="I170" t="n">
-        <v>38</v>
+        <v>46.975</v>
       </c>
       <c r="J170" t="n">
-        <v>148</v>
+        <v>134.025</v>
       </c>
     </row>
     <row r="171">
@@ -7003,10 +7003,10 @@
         <v>76.6938956813507</v>
       </c>
       <c r="I171" t="n">
-        <v>31.995</v>
+        <v>36</v>
       </c>
       <c r="J171" t="n">
-        <v>165.01</v>
+        <v>154.025</v>
       </c>
     </row>
     <row r="172">
@@ -7035,10 +7035,10 @@
         <v>70.4869912742172</v>
       </c>
       <c r="I172" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="J172" t="n">
-        <v>205</v>
+        <v>193</v>
       </c>
     </row>
     <row r="173">
@@ -7067,10 +7067,10 @@
         <v>77.0893909961012</v>
       </c>
       <c r="I173" t="n">
-        <v>46.995</v>
+        <v>55</v>
       </c>
       <c r="J173" t="n">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="174">
@@ -7099,10 +7099,10 @@
         <v>79.4420383250756</v>
       </c>
       <c r="I174" t="n">
-        <v>50.99</v>
+        <v>56.975</v>
       </c>
       <c r="J174" t="n">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="175">
@@ -7131,10 +7131,10 @@
         <v>69.4628954195827</v>
       </c>
       <c r="I175" t="n">
-        <v>44.99</v>
+        <v>48</v>
       </c>
       <c r="J175" t="n">
-        <v>136</v>
+        <v>124</v>
       </c>
     </row>
     <row r="176">
@@ -7163,10 +7163,10 @@
         <v>63.8274577470066</v>
       </c>
       <c r="I176" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="J176" t="n">
-        <v>166</v>
+        <v>146.025</v>
       </c>
     </row>
     <row r="177">
@@ -7195,10 +7195,10 @@
         <v>68.6610100366103</v>
       </c>
       <c r="I177" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="J177" t="n">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="178">
@@ -7227,10 +7227,10 @@
         <v>59.1842279720162</v>
       </c>
       <c r="I178" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J178" t="n">
-        <v>117</v>
+        <v>102.025</v>
       </c>
     </row>
     <row r="179">
@@ -7259,10 +7259,10 @@
         <v>580.62101985765</v>
       </c>
       <c r="I179" t="n">
-        <v>510</v>
+        <v>528.975</v>
       </c>
       <c r="J179" t="n">
-        <v>668.015</v>
+        <v>647</v>
       </c>
     </row>
     <row r="180">
@@ -7291,10 +7291,10 @@
         <v>563.158805172938</v>
       </c>
       <c r="I180" t="n">
-        <v>495.99</v>
+        <v>508</v>
       </c>
       <c r="J180" t="n">
-        <v>704</v>
+        <v>686</v>
       </c>
     </row>
     <row r="181">
@@ -7323,10 +7323,10 @@
         <v>531.994137824137</v>
       </c>
       <c r="I181" t="n">
-        <v>464</v>
+        <v>490</v>
       </c>
       <c r="J181" t="n">
-        <v>597.005</v>
+        <v>580.025</v>
       </c>
     </row>
     <row r="182">
@@ -7355,10 +7355,10 @@
         <v>187.46258452421</v>
       </c>
       <c r="I182" t="n">
-        <v>139.98</v>
+        <v>151.975</v>
       </c>
       <c r="J182" t="n">
-        <v>262</v>
+        <v>244</v>
       </c>
     </row>
     <row r="183">
@@ -7387,10 +7387,10 @@
         <v>165.430889216711</v>
       </c>
       <c r="I183" t="n">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="J183" t="n">
-        <v>231</v>
+        <v>212</v>
       </c>
     </row>
     <row r="184">
@@ -7419,10 +7419,10 @@
         <v>190.39727197209</v>
       </c>
       <c r="I184" t="n">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="J184" t="n">
-        <v>254.01</v>
+        <v>242</v>
       </c>
     </row>
     <row r="185">
@@ -7451,10 +7451,10 @@
         <v>236.084130930123</v>
       </c>
       <c r="I185" t="n">
-        <v>153</v>
+        <v>165.95</v>
       </c>
       <c r="J185" t="n">
-        <v>367</v>
+        <v>343</v>
       </c>
     </row>
     <row r="186">
@@ -7483,10 +7483,10 @@
         <v>212.677870791651</v>
       </c>
       <c r="I186" t="n">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="J186" t="n">
-        <v>301.21</v>
+        <v>265.025</v>
       </c>
     </row>
     <row r="187">
@@ -7515,10 +7515,10 @@
         <v>269.552974386409</v>
       </c>
       <c r="I187" t="n">
-        <v>177.995</v>
+        <v>191.975</v>
       </c>
       <c r="J187" t="n">
-        <v>347.01</v>
+        <v>332</v>
       </c>
     </row>
     <row r="188">
@@ -7547,10 +7547,10 @@
         <v>138.577826905935</v>
       </c>
       <c r="I188" t="n">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="J188" t="n">
-        <v>259.005</v>
+        <v>238.05</v>
       </c>
     </row>
     <row r="189">
@@ -7579,10 +7579,10 @@
         <v>124.884904710489</v>
       </c>
       <c r="I189" t="n">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="J189" t="n">
-        <v>167.015</v>
+        <v>148.025</v>
       </c>
     </row>
     <row r="190">
@@ -7611,10 +7611,10 @@
         <v>117.676954987311</v>
       </c>
       <c r="I190" t="n">
-        <v>88</v>
+        <v>92.975</v>
       </c>
       <c r="J190" t="n">
-        <v>158</v>
+        <v>147</v>
       </c>
     </row>
     <row r="191">
@@ -7643,10 +7643,10 @@
         <v>168.019218299556</v>
       </c>
       <c r="I191" t="n">
-        <v>125.99</v>
+        <v>133.975</v>
       </c>
       <c r="J191" t="n">
-        <v>214.015</v>
+        <v>205.025</v>
       </c>
     </row>
     <row r="192">
@@ -7675,10 +7675,10 @@
         <v>191.524266460905</v>
       </c>
       <c r="I192" t="n">
-        <v>140</v>
+        <v>153.975</v>
       </c>
       <c r="J192" t="n">
-        <v>236</v>
+        <v>227.025</v>
       </c>
     </row>
     <row r="193">
@@ -7707,10 +7707,10 @@
         <v>169.872265911492</v>
       </c>
       <c r="I193" t="n">
-        <v>119.975</v>
+        <v>131.975</v>
       </c>
       <c r="J193" t="n">
-        <v>253.025</v>
+        <v>239.025</v>
       </c>
     </row>
     <row r="194">
@@ -7739,10 +7739,10 @@
         <v>236.633731053396</v>
       </c>
       <c r="I194" t="n">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="J194" t="n">
-        <v>282.025</v>
+        <v>269.025</v>
       </c>
     </row>
     <row r="195">
@@ -7771,10 +7771,10 @@
         <v>246.205515206693</v>
       </c>
       <c r="I195" t="n">
-        <v>199</v>
+        <v>210.975</v>
       </c>
       <c r="J195" t="n">
-        <v>290.01</v>
+        <v>277.025</v>
       </c>
     </row>
     <row r="196">
@@ -7803,10 +7803,10 @@
         <v>253.652721391851</v>
       </c>
       <c r="I196" t="n">
-        <v>213.995</v>
+        <v>222</v>
       </c>
       <c r="J196" t="n">
-        <v>297</v>
+        <v>287</v>
       </c>
     </row>
     <row r="197">
@@ -7835,10 +7835,10 @@
         <v>211.865682742259</v>
       </c>
       <c r="I197" t="n">
-        <v>164.99</v>
+        <v>168</v>
       </c>
       <c r="J197" t="n">
-        <v>393.035</v>
+        <v>376.075</v>
       </c>
     </row>
     <row r="198">
@@ -7867,10 +7867,10 @@
         <v>176.940045747682</v>
       </c>
       <c r="I198" t="n">
-        <v>142.99</v>
+        <v>150</v>
       </c>
       <c r="J198" t="n">
-        <v>217.02</v>
+        <v>208</v>
       </c>
     </row>
     <row r="199">
@@ -7899,10 +7899,10 @@
         <v>174.650004800121</v>
       </c>
       <c r="I199" t="n">
-        <v>135.99</v>
+        <v>145</v>
       </c>
       <c r="J199" t="n">
-        <v>218.005</v>
+        <v>202</v>
       </c>
     </row>
     <row r="200">
@@ -7931,10 +7931,10 @@
         <v>269.61018446052</v>
       </c>
       <c r="I200" t="n">
-        <v>212.985</v>
+        <v>228</v>
       </c>
       <c r="J200" t="n">
-        <v>345.01</v>
+        <v>337.025</v>
       </c>
     </row>
     <row r="201">
@@ -7963,10 +7963,10 @@
         <v>268.169468273271</v>
       </c>
       <c r="I201" t="n">
-        <v>189</v>
+        <v>203.975</v>
       </c>
       <c r="J201" t="n">
-        <v>367</v>
+        <v>342</v>
       </c>
     </row>
     <row r="202">
@@ -7995,10 +7995,10 @@
         <v>266.82915912084</v>
       </c>
       <c r="I202" t="n">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="J202" t="n">
-        <v>339.01</v>
+        <v>313</v>
       </c>
     </row>
     <row r="203">
@@ -8027,10 +8027,10 @@
         <v>44.4227513642724</v>
       </c>
       <c r="I203" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="J203" t="n">
-        <v>87.01</v>
+        <v>77</v>
       </c>
     </row>
     <row r="204">
@@ -8059,10 +8059,10 @@
         <v>40.1995407027867</v>
       </c>
       <c r="I204" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="J204" t="n">
-        <v>110.005</v>
+        <v>93</v>
       </c>
     </row>
     <row r="205">
@@ -8091,10 +8091,10 @@
         <v>27.0258533889136</v>
       </c>
       <c r="I205" t="n">
-        <v>15.995</v>
+        <v>17</v>
       </c>
       <c r="J205" t="n">
-        <v>51.01</v>
+        <v>41</v>
       </c>
     </row>
     <row r="206">
@@ -8123,10 +8123,10 @@
         <v>30.3945772013426</v>
       </c>
       <c r="I206" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J206" t="n">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="207">
@@ -8158,7 +8158,7 @@
         <v>1</v>
       </c>
       <c r="J207" t="n">
-        <v>150.005</v>
+        <v>142</v>
       </c>
     </row>
     <row r="208">
@@ -8187,10 +8187,10 @@
         <v>22.1152786546359</v>
       </c>
       <c r="I208" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J208" t="n">
-        <v>293</v>
+        <v>276.05</v>
       </c>
     </row>
     <row r="209">
@@ -8219,10 +8219,10 @@
         <v>36.6385512324211</v>
       </c>
       <c r="I209" t="n">
-        <v>21.99</v>
+        <v>25</v>
       </c>
       <c r="J209" t="n">
-        <v>56.005</v>
+        <v>51</v>
       </c>
     </row>
     <row r="210">
@@ -8251,10 +8251,10 @@
         <v>58.1458919624194</v>
       </c>
       <c r="I210" t="n">
-        <v>19.995</v>
+        <v>23.975</v>
       </c>
       <c r="J210" t="n">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="211">
@@ -8283,10 +8283,10 @@
         <v>70.9628429061767</v>
       </c>
       <c r="I211" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="J211" t="n">
-        <v>175.01</v>
+        <v>156.05</v>
       </c>
     </row>
     <row r="212">
@@ -8315,10 +8315,10 @@
         <v>60.9721711364176</v>
       </c>
       <c r="I212" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J212" t="n">
-        <v>118.025</v>
+        <v>111</v>
       </c>
     </row>
     <row r="213">
@@ -8347,10 +8347,10 @@
         <v>65.2415856508383</v>
       </c>
       <c r="I213" t="n">
-        <v>14</v>
+        <v>17.975</v>
       </c>
       <c r="J213" t="n">
-        <v>124.005</v>
+        <v>107.025</v>
       </c>
     </row>
     <row r="214">
@@ -8379,10 +8379,10 @@
         <v>78.2166101986566</v>
       </c>
       <c r="I214" t="n">
-        <v>50.99</v>
+        <v>57.975</v>
       </c>
       <c r="J214" t="n">
-        <v>150</v>
+        <v>135.025</v>
       </c>
     </row>
     <row r="215">
@@ -8411,10 +8411,10 @@
         <v>91.4616796830684</v>
       </c>
       <c r="I215" t="n">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="J215" t="n">
-        <v>139</v>
+        <v>128</v>
       </c>
     </row>
     <row r="216">
@@ -8443,10 +8443,10 @@
         <v>94.541551228871</v>
       </c>
       <c r="I216" t="n">
-        <v>45</v>
+        <v>50.975</v>
       </c>
       <c r="J216" t="n">
-        <v>147</v>
+        <v>129</v>
       </c>
     </row>
     <row r="217">
@@ -8475,10 +8475,10 @@
         <v>103.128443605035</v>
       </c>
       <c r="I217" t="n">
-        <v>74.985</v>
+        <v>80</v>
       </c>
       <c r="J217" t="n">
-        <v>163</v>
+        <v>151.025</v>
       </c>
     </row>
     <row r="218">
@@ -8507,10 +8507,10 @@
         <v>57.8310342566627</v>
       </c>
       <c r="I218" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="J218" t="n">
-        <v>95</v>
+        <v>84</v>
       </c>
     </row>
     <row r="219">
@@ -8539,10 +8539,10 @@
         <v>70.042049729159</v>
       </c>
       <c r="I219" t="n">
-        <v>23.995</v>
+        <v>27.975</v>
       </c>
       <c r="J219" t="n">
-        <v>118.015</v>
+        <v>107</v>
       </c>
     </row>
     <row r="220">
@@ -8571,10 +8571,10 @@
         <v>66.5363027525662</v>
       </c>
       <c r="I220" t="n">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="J220" t="n">
-        <v>149.015</v>
+        <v>139</v>
       </c>
     </row>
     <row r="221">
@@ -8603,10 +8603,10 @@
         <v>35.3436163359907</v>
       </c>
       <c r="I221" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="J221" t="n">
-        <v>77.005</v>
+        <v>67</v>
       </c>
     </row>
     <row r="222">
@@ -8635,10 +8635,10 @@
         <v>46.4228023685374</v>
       </c>
       <c r="I222" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J222" t="n">
-        <v>87.005</v>
+        <v>82</v>
       </c>
     </row>
     <row r="223">
@@ -8667,10 +8667,10 @@
         <v>52.5337107261353</v>
       </c>
       <c r="I223" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="J223" t="n">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="224">
@@ -8699,10 +8699,10 @@
         <v>172.33588781328</v>
       </c>
       <c r="I224" t="n">
-        <v>131</v>
+        <v>141.975</v>
       </c>
       <c r="J224" t="n">
-        <v>232.025</v>
+        <v>215</v>
       </c>
     </row>
     <row r="225">
@@ -8731,10 +8731,10 @@
         <v>196.039686331052</v>
       </c>
       <c r="I225" t="n">
-        <v>117.995</v>
+        <v>128</v>
       </c>
       <c r="J225" t="n">
-        <v>261.015</v>
+        <v>252.025</v>
       </c>
     </row>
     <row r="226">
@@ -8763,10 +8763,10 @@
         <v>203.024692395746</v>
       </c>
       <c r="I226" t="n">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="J226" t="n">
-        <v>298.015</v>
+        <v>278</v>
       </c>
     </row>
     <row r="227">
@@ -8795,10 +8795,10 @@
         <v>125.406747909401</v>
       </c>
       <c r="I227" t="n">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="J227" t="n">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="228">
@@ -8827,10 +8827,10 @@
         <v>141.884803956163</v>
       </c>
       <c r="I228" t="n">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="J228" t="n">
-        <v>174</v>
+        <v>165</v>
       </c>
     </row>
     <row r="229">
@@ -8859,10 +8859,10 @@
         <v>145.929544754127</v>
       </c>
       <c r="I229" t="n">
-        <v>115.995</v>
+        <v>122</v>
       </c>
       <c r="J229" t="n">
-        <v>186</v>
+        <v>174</v>
       </c>
     </row>
     <row r="230">
@@ -8891,10 +8891,10 @@
         <v>106.924168730619</v>
       </c>
       <c r="I230" t="n">
-        <v>76.995</v>
+        <v>83</v>
       </c>
       <c r="J230" t="n">
-        <v>156</v>
+        <v>145.025</v>
       </c>
     </row>
     <row r="231">
@@ -8923,10 +8923,10 @@
         <v>94.9933127438605</v>
       </c>
       <c r="I231" t="n">
-        <v>65.985</v>
+        <v>72.975</v>
       </c>
       <c r="J231" t="n">
-        <v>161.03</v>
+        <v>153.05</v>
       </c>
     </row>
     <row r="232">
@@ -8955,10 +8955,10 @@
         <v>108.297342678816</v>
       </c>
       <c r="I232" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="J232" t="n">
-        <v>158.01</v>
+        <v>147</v>
       </c>
     </row>
     <row r="233">
@@ -8987,10 +8987,10 @@
         <v>62.3713971626313</v>
       </c>
       <c r="I233" t="n">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="J233" t="n">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="234">
@@ -9019,10 +9019,10 @@
         <v>56.7481390693446</v>
       </c>
       <c r="I234" t="n">
-        <v>28</v>
+        <v>31.975</v>
       </c>
       <c r="J234" t="n">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="235">
@@ -9051,10 +9051,10 @@
         <v>59.8401210367519</v>
       </c>
       <c r="I235" t="n">
-        <v>37</v>
+        <v>42.975</v>
       </c>
       <c r="J235" t="n">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="236">
@@ -9083,10 +9083,10 @@
         <v>360.080263259496</v>
       </c>
       <c r="I236" t="n">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="J236" t="n">
-        <v>556</v>
+        <v>519.025</v>
       </c>
     </row>
     <row r="237">
@@ -9115,10 +9115,10 @@
         <v>360.691290905878</v>
       </c>
       <c r="I237" t="n">
-        <v>279</v>
+        <v>296</v>
       </c>
       <c r="J237" t="n">
-        <v>424</v>
+        <v>409</v>
       </c>
     </row>
     <row r="238">
@@ -9147,10 +9147,10 @@
         <v>345.637844042541</v>
       </c>
       <c r="I238" t="n">
-        <v>264</v>
+        <v>286.95</v>
       </c>
       <c r="J238" t="n">
-        <v>471</v>
+        <v>436.025</v>
       </c>
     </row>
     <row r="239">
@@ -9179,10 +9179,10 @@
         <v>482.843069728566</v>
       </c>
       <c r="I239" t="n">
-        <v>408.98</v>
+        <v>426</v>
       </c>
       <c r="J239" t="n">
-        <v>547.005</v>
+        <v>533</v>
       </c>
     </row>
     <row r="240">
@@ -9211,10 +9211,10 @@
         <v>514.937948366073</v>
       </c>
       <c r="I240" t="n">
-        <v>459.94</v>
+        <v>466.975</v>
       </c>
       <c r="J240" t="n">
-        <v>578</v>
+        <v>560</v>
       </c>
     </row>
     <row r="241">
@@ -9243,10 +9243,10 @@
         <v>539.134695279992</v>
       </c>
       <c r="I241" t="n">
-        <v>475.995</v>
+        <v>492.975</v>
       </c>
       <c r="J241" t="n">
-        <v>601</v>
+        <v>587.025</v>
       </c>
     </row>
     <row r="242">
@@ -9275,10 +9275,10 @@
         <v>296.899383985685</v>
       </c>
       <c r="I242" t="n">
-        <v>219.965</v>
+        <v>241</v>
       </c>
       <c r="J242" t="n">
-        <v>566</v>
+        <v>533.075</v>
       </c>
     </row>
     <row r="243">
@@ -9307,10 +9307,10 @@
         <v>222.542142335188</v>
       </c>
       <c r="I243" t="n">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="J243" t="n">
-        <v>309</v>
+        <v>294</v>
       </c>
     </row>
     <row r="244">
@@ -9339,10 +9339,10 @@
         <v>259.862991590101</v>
       </c>
       <c r="I244" t="n">
-        <v>140</v>
+        <v>153.975</v>
       </c>
       <c r="J244" t="n">
-        <v>389.005</v>
+        <v>359.075</v>
       </c>
     </row>
     <row r="245">
@@ -9371,10 +9371,10 @@
         <v>177.40368618125</v>
       </c>
       <c r="I245" t="n">
-        <v>136.995</v>
+        <v>145</v>
       </c>
       <c r="J245" t="n">
-        <v>216</v>
+        <v>207.025</v>
       </c>
     </row>
     <row r="246">
@@ -9403,10 +9403,10 @@
         <v>175.662335053738</v>
       </c>
       <c r="I246" t="n">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="J246" t="n">
-        <v>224</v>
+        <v>209</v>
       </c>
     </row>
     <row r="247">
@@ -9435,10 +9435,10 @@
         <v>198.685608443015</v>
       </c>
       <c r="I247" t="n">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="J247" t="n">
-        <v>243</v>
+        <v>233</v>
       </c>
     </row>
     <row r="248">
@@ -9467,10 +9467,10 @@
         <v>170.154607681715</v>
       </c>
       <c r="I248" t="n">
-        <v>135.98</v>
+        <v>143</v>
       </c>
       <c r="J248" t="n">
-        <v>207</v>
+        <v>198</v>
       </c>
     </row>
     <row r="249">
@@ -9499,10 +9499,10 @@
         <v>171.86262279107</v>
       </c>
       <c r="I249" t="n">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="J249" t="n">
-        <v>209</v>
+        <v>199</v>
       </c>
     </row>
     <row r="250">
@@ -9531,10 +9531,10 @@
         <v>189.074626115524</v>
       </c>
       <c r="I250" t="n">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="J250" t="n">
-        <v>232.015</v>
+        <v>223</v>
       </c>
     </row>
     <row r="251">
@@ -9563,10 +9563,10 @@
         <v>112.708442114513</v>
       </c>
       <c r="I251" t="n">
-        <v>82.995</v>
+        <v>83</v>
       </c>
       <c r="J251" t="n">
-        <v>182</v>
+        <v>168.025</v>
       </c>
     </row>
     <row r="252">
@@ -9595,10 +9595,10 @@
         <v>101.047917374549</v>
       </c>
       <c r="I252" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="J252" t="n">
-        <v>157</v>
+        <v>144</v>
       </c>
     </row>
     <row r="253">
@@ -9627,10 +9627,10 @@
         <v>86.8475622364741</v>
       </c>
       <c r="I253" t="n">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J253" t="n">
-        <v>129</v>
+        <v>114</v>
       </c>
     </row>
     <row r="254">
@@ -9659,10 +9659,10 @@
         <v>192.840323977735</v>
       </c>
       <c r="I254" t="n">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="J254" t="n">
-        <v>466</v>
+        <v>441.025</v>
       </c>
     </row>
     <row r="255">
@@ -9691,10 +9691,10 @@
         <v>181.909944168351</v>
       </c>
       <c r="I255" t="n">
-        <v>121.995</v>
+        <v>126.975</v>
       </c>
       <c r="J255" t="n">
-        <v>263</v>
+        <v>235.025</v>
       </c>
     </row>
     <row r="256">
@@ -9723,10 +9723,10 @@
         <v>195.259618250611</v>
       </c>
       <c r="I256" t="n">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="J256" t="n">
-        <v>282</v>
+        <v>258.025</v>
       </c>
     </row>
     <row r="257">
@@ -9755,10 +9755,10 @@
         <v>128.639797440827</v>
       </c>
       <c r="I257" t="n">
-        <v>76.995</v>
+        <v>86.975</v>
       </c>
       <c r="J257" t="n">
-        <v>165</v>
+        <v>152.025</v>
       </c>
     </row>
     <row r="258">
@@ -9787,10 +9787,10 @@
         <v>130.965381142707</v>
       </c>
       <c r="I258" t="n">
-        <v>86.99</v>
+        <v>98</v>
       </c>
       <c r="J258" t="n">
-        <v>196</v>
+        <v>186</v>
       </c>
     </row>
     <row r="259">
@@ -9819,10 +9819,10 @@
         <v>113.572273622512</v>
       </c>
       <c r="I259" t="n">
-        <v>85</v>
+        <v>87.975</v>
       </c>
       <c r="J259" t="n">
-        <v>208</v>
+        <v>190</v>
       </c>
     </row>
     <row r="260">
@@ -9851,10 +9851,10 @@
         <v>151.988005390719</v>
       </c>
       <c r="I260" t="n">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="J260" t="n">
-        <v>211</v>
+        <v>201</v>
       </c>
     </row>
     <row r="261">
@@ -9883,10 +9883,10 @@
         <v>152.983939515265</v>
       </c>
       <c r="I261" t="n">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="J261" t="n">
-        <v>196.03</v>
+        <v>189</v>
       </c>
     </row>
     <row r="262">
@@ -9915,10 +9915,10 @@
         <v>163.280552527131</v>
       </c>
       <c r="I262" t="n">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="J262" t="n">
-        <v>218</v>
+        <v>203.05</v>
       </c>
     </row>
     <row r="263">
@@ -9947,10 +9947,10 @@
         <v>260.093136194602</v>
       </c>
       <c r="I263" t="n">
-        <v>224.995</v>
+        <v>226</v>
       </c>
       <c r="J263" t="n">
-        <v>325</v>
+        <v>307</v>
       </c>
     </row>
     <row r="264">
@@ -9979,10 +9979,10 @@
         <v>289.562307380689</v>
       </c>
       <c r="I264" t="n">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="J264" t="n">
-        <v>372.005</v>
+        <v>354</v>
       </c>
     </row>
     <row r="265">
@@ -10011,10 +10011,10 @@
         <v>288.111295888662</v>
       </c>
       <c r="I265" t="n">
-        <v>209</v>
+        <v>223.975</v>
       </c>
       <c r="J265" t="n">
-        <v>421</v>
+        <v>403.025</v>
       </c>
     </row>
     <row r="266">
@@ -10043,10 +10043,10 @@
         <v>116.829243326474</v>
       </c>
       <c r="I266" t="n">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="J266" t="n">
-        <v>221</v>
+        <v>204.025</v>
       </c>
     </row>
     <row r="267">
@@ -10075,10 +10075,10 @@
         <v>109.248281516643</v>
       </c>
       <c r="I267" t="n">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="J267" t="n">
-        <v>161</v>
+        <v>138</v>
       </c>
     </row>
     <row r="268">
@@ -10107,10 +10107,10 @@
         <v>133.097039460981</v>
       </c>
       <c r="I268" t="n">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="J268" t="n">
-        <v>167.025</v>
+        <v>161</v>
       </c>
     </row>
     <row r="269">
@@ -10139,10 +10139,10 @@
         <v>256.600368400483</v>
       </c>
       <c r="I269" t="n">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="J269" t="n">
-        <v>347.005</v>
+        <v>328</v>
       </c>
     </row>
     <row r="270">
@@ -10171,10 +10171,10 @@
         <v>264.457968508426</v>
       </c>
       <c r="I270" t="n">
-        <v>217.99</v>
+        <v>222</v>
       </c>
       <c r="J270" t="n">
-        <v>398</v>
+        <v>374</v>
       </c>
     </row>
     <row r="271">
@@ -10203,10 +10203,10 @@
         <v>241.134426462598</v>
       </c>
       <c r="I271" t="n">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="J271" t="n">
-        <v>292</v>
+        <v>274</v>
       </c>
     </row>
     <row r="272">
@@ -10235,10 +10235,10 @@
         <v>226.14811717846</v>
       </c>
       <c r="I272" t="n">
-        <v>170.995</v>
+        <v>183</v>
       </c>
       <c r="J272" t="n">
-        <v>304</v>
+        <v>287</v>
       </c>
     </row>
     <row r="273">
@@ -10267,10 +10267,10 @@
         <v>237.994058468167</v>
       </c>
       <c r="I273" t="n">
-        <v>153.995</v>
+        <v>170.975</v>
       </c>
       <c r="J273" t="n">
-        <v>302.01</v>
+        <v>292</v>
       </c>
     </row>
     <row r="274">
@@ -10299,10 +10299,10 @@
         <v>260.109606589105</v>
       </c>
       <c r="I274" t="n">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="J274" t="n">
-        <v>346</v>
+        <v>328.025</v>
       </c>
     </row>
     <row r="275">
@@ -10331,10 +10331,10 @@
         <v>163.929636026076</v>
       </c>
       <c r="I275" t="n">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="J275" t="n">
-        <v>385</v>
+        <v>362.025</v>
       </c>
     </row>
     <row r="276">
@@ -10363,10 +10363,10 @@
         <v>191.050516767461</v>
       </c>
       <c r="I276" t="n">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="J276" t="n">
-        <v>286</v>
+        <v>269.025</v>
       </c>
     </row>
     <row r="277">
@@ -10395,10 +10395,10 @@
         <v>199.575493643368</v>
       </c>
       <c r="I277" t="n">
-        <v>119</v>
+        <v>132.975</v>
       </c>
       <c r="J277" t="n">
-        <v>367.005</v>
+        <v>347.025</v>
       </c>
     </row>
     <row r="278">
@@ -10427,10 +10427,10 @@
         <v>160.415540877535</v>
       </c>
       <c r="I278" t="n">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="J278" t="n">
-        <v>301</v>
+        <v>274.025</v>
       </c>
     </row>
     <row r="279">
@@ -10459,10 +10459,10 @@
         <v>151.333490655205</v>
       </c>
       <c r="I279" t="n">
-        <v>109</v>
+        <v>110.975</v>
       </c>
       <c r="J279" t="n">
-        <v>374</v>
+        <v>353.05</v>
       </c>
     </row>
     <row r="280">
@@ -10491,10 +10491,10 @@
         <v>129.230585184139</v>
       </c>
       <c r="I280" t="n">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="J280" t="n">
-        <v>172.02</v>
+        <v>155</v>
       </c>
     </row>
     <row r="281">
@@ -10523,10 +10523,10 @@
         <v>184.660079227896</v>
       </c>
       <c r="I281" t="n">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="J281" t="n">
-        <v>276</v>
+        <v>258.025</v>
       </c>
     </row>
     <row r="282">
@@ -10555,10 +10555,10 @@
         <v>192.841824941721</v>
       </c>
       <c r="I282" t="n">
-        <v>134</v>
+        <v>145.975</v>
       </c>
       <c r="J282" t="n">
-        <v>249.005</v>
+        <v>235</v>
       </c>
     </row>
     <row r="283">
@@ -10587,10 +10587,10 @@
         <v>237.41538573064</v>
       </c>
       <c r="I283" t="n">
-        <v>141</v>
+        <v>158.975</v>
       </c>
       <c r="J283" t="n">
-        <v>296</v>
+        <v>284.025</v>
       </c>
     </row>
     <row r="284">
@@ -10619,10 +10619,10 @@
         <v>230.534365571952</v>
       </c>
       <c r="I284" t="n">
-        <v>150</v>
+        <v>165.975</v>
       </c>
       <c r="J284" t="n">
-        <v>436</v>
+        <v>411.025</v>
       </c>
     </row>
     <row r="285">
@@ -10651,10 +10651,10 @@
         <v>203.122286208085</v>
       </c>
       <c r="I285" t="n">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="J285" t="n">
-        <v>270.005</v>
+        <v>252.025</v>
       </c>
     </row>
     <row r="286">
@@ -10683,10 +10683,10 @@
         <v>244.758300668873</v>
       </c>
       <c r="I286" t="n">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="J286" t="n">
-        <v>310.005</v>
+        <v>296</v>
       </c>
     </row>
     <row r="287">
@@ -10715,10 +10715,10 @@
         <v>37.3401667846148</v>
       </c>
       <c r="I287" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J287" t="n">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="288">
@@ -10747,10 +10747,10 @@
         <v>40.3510497406301</v>
       </c>
       <c r="I288" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="J288" t="n">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="289">
@@ -10779,10 +10779,10 @@
         <v>46.7051812434939</v>
       </c>
       <c r="I289" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J289" t="n">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="290">
@@ -10811,10 +10811,10 @@
         <v>74.3583225565511</v>
       </c>
       <c r="I290" t="n">
-        <v>18</v>
+        <v>25.975</v>
       </c>
       <c r="J290" t="n">
-        <v>221</v>
+        <v>207</v>
       </c>
     </row>
     <row r="291">
@@ -10843,10 +10843,10 @@
         <v>69.2661226843849</v>
       </c>
       <c r="I291" t="n">
-        <v>14</v>
+        <v>19.975</v>
       </c>
       <c r="J291" t="n">
-        <v>183.005</v>
+        <v>169.025</v>
       </c>
     </row>
     <row r="292">
@@ -10875,10 +10875,10 @@
         <v>54.4102254093258</v>
       </c>
       <c r="I292" t="n">
-        <v>22</v>
+        <v>28.975</v>
       </c>
       <c r="J292" t="n">
-        <v>287</v>
+        <v>268</v>
       </c>
     </row>
     <row r="293">
@@ -10907,10 +10907,10 @@
         <v>337.465849879379</v>
       </c>
       <c r="I293" t="n">
-        <v>231</v>
+        <v>251</v>
       </c>
       <c r="J293" t="n">
-        <v>583</v>
+        <v>556</v>
       </c>
     </row>
     <row r="294">
@@ -10939,10 +10939,10 @@
         <v>310.664936839189</v>
       </c>
       <c r="I294" t="n">
-        <v>202</v>
+        <v>212.975</v>
       </c>
       <c r="J294" t="n">
-        <v>389</v>
+        <v>364.025</v>
       </c>
     </row>
     <row r="295">
@@ -10971,10 +10971,10 @@
         <v>328.633052306829</v>
       </c>
       <c r="I295" t="n">
-        <v>288.995</v>
+        <v>290</v>
       </c>
       <c r="J295" t="n">
-        <v>388</v>
+        <v>370.05</v>
       </c>
     </row>
     <row r="296">
@@ -11003,10 +11003,10 @@
         <v>703.827276445419</v>
       </c>
       <c r="I296" t="n">
-        <v>549</v>
+        <v>574.975</v>
       </c>
       <c r="J296" t="n">
-        <v>849</v>
+        <v>809.025</v>
       </c>
     </row>
     <row r="297">
@@ -11035,10 +11035,10 @@
         <v>693.994587044582</v>
       </c>
       <c r="I297" t="n">
-        <v>530</v>
+        <v>557.95</v>
       </c>
       <c r="J297" t="n">
-        <v>866.01</v>
+        <v>837.025</v>
       </c>
     </row>
     <row r="298">
@@ -11067,10 +11067,10 @@
         <v>727.966876375126</v>
       </c>
       <c r="I298" t="n">
-        <v>613</v>
+        <v>634.975</v>
       </c>
       <c r="J298" t="n">
-        <v>962</v>
+        <v>925.025</v>
       </c>
     </row>
     <row r="299">
@@ -11099,10 +11099,10 @@
         <v>249.323662155703</v>
       </c>
       <c r="I299" t="n">
-        <v>146.995</v>
+        <v>163</v>
       </c>
       <c r="J299" t="n">
-        <v>680</v>
+        <v>639.075</v>
       </c>
     </row>
     <row r="300">
@@ -11131,10 +11131,10 @@
         <v>230.778245860047</v>
       </c>
       <c r="I300" t="n">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="J300" t="n">
-        <v>303</v>
+        <v>287</v>
       </c>
     </row>
     <row r="301">
@@ -11163,10 +11163,10 @@
         <v>264.137341408081</v>
       </c>
       <c r="I301" t="n">
-        <v>223.975</v>
+        <v>228</v>
       </c>
       <c r="J301" t="n">
-        <v>311.01</v>
+        <v>301.025</v>
       </c>
     </row>
     <row r="302">
@@ -11195,10 +11195,10 @@
         <v>42.4278546443553</v>
       </c>
       <c r="I302" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="J302" t="n">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="303">
@@ -11227,10 +11227,10 @@
         <v>40.8836970690329</v>
       </c>
       <c r="I303" t="n">
-        <v>15.995</v>
+        <v>19.975</v>
       </c>
       <c r="J303" t="n">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="304">
@@ -11259,10 +11259,10 @@
         <v>48.9711982179952</v>
       </c>
       <c r="I304" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J304" t="n">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="305">
@@ -11291,10 +11291,10 @@
         <v>25.5938004929671</v>
       </c>
       <c r="I305" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J305" t="n">
-        <v>112</v>
+        <v>97</v>
       </c>
     </row>
     <row r="306">
@@ -11323,10 +11323,10 @@
         <v>28.0153348192908</v>
       </c>
       <c r="I306" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J306" t="n">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="307">
@@ -11355,10 +11355,10 @@
         <v>31.6008722710269</v>
       </c>
       <c r="I307" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J307" t="n">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="308">
@@ -11387,10 +11387,10 @@
         <v>837.116175958465</v>
       </c>
       <c r="I308" t="n">
-        <v>576</v>
+        <v>616.95</v>
       </c>
       <c r="J308" t="n">
-        <v>1089</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="309">
@@ -11419,10 +11419,10 @@
         <v>853.374925722919</v>
       </c>
       <c r="I309" t="n">
-        <v>510</v>
+        <v>547.925</v>
       </c>
       <c r="J309" t="n">
-        <v>1093.01</v>
+        <v>1058.1</v>
       </c>
     </row>
     <row r="310">
@@ -11451,10 +11451,10 @@
         <v>833.448781548554</v>
       </c>
       <c r="I310" t="n">
-        <v>683.975</v>
+        <v>714.95</v>
       </c>
       <c r="J310" t="n">
-        <v>1221</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="311">
@@ -11483,10 +11483,10 @@
         <v>141.097063387644</v>
       </c>
       <c r="I311" t="n">
-        <v>114.995</v>
+        <v>116</v>
       </c>
       <c r="J311" t="n">
-        <v>191.005</v>
+        <v>180.025</v>
       </c>
     </row>
     <row r="312">
@@ -11515,10 +11515,10 @@
         <v>140.274427330732</v>
       </c>
       <c r="I312" t="n">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="J312" t="n">
-        <v>183.005</v>
+        <v>172</v>
       </c>
     </row>
     <row r="313">
@@ -11547,10 +11547,10 @@
         <v>160.844493221337</v>
       </c>
       <c r="I313" t="n">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="J313" t="n">
-        <v>208</v>
+        <v>197</v>
       </c>
     </row>
     <row r="314">
@@ -11579,10 +11579,10 @@
         <v>137.373469010469</v>
       </c>
       <c r="I314" t="n">
-        <v>96</v>
+        <v>103.975</v>
       </c>
       <c r="J314" t="n">
-        <v>180.005</v>
+        <v>165</v>
       </c>
     </row>
     <row r="315">
@@ -11611,10 +11611,10 @@
         <v>144.114977257007</v>
       </c>
       <c r="I315" t="n">
-        <v>118.985</v>
+        <v>117.975</v>
       </c>
       <c r="J315" t="n">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="316">
@@ -11643,10 +11643,10 @@
         <v>157.547585951953</v>
       </c>
       <c r="I316" t="n">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="J316" t="n">
-        <v>193</v>
+        <v>185</v>
       </c>
     </row>
     <row r="317">
@@ -11675,10 +11675,10 @@
         <v>117.103437848647</v>
       </c>
       <c r="I317" t="n">
-        <v>75</v>
+        <v>83.975</v>
       </c>
       <c r="J317" t="n">
-        <v>188</v>
+        <v>169</v>
       </c>
     </row>
     <row r="318">
@@ -11707,10 +11707,10 @@
         <v>114.217644249018</v>
       </c>
       <c r="I318" t="n">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="J318" t="n">
-        <v>150.01</v>
+        <v>142.025</v>
       </c>
     </row>
     <row r="319">
@@ -11739,10 +11739,10 @@
         <v>96.1686237431497</v>
       </c>
       <c r="I319" t="n">
-        <v>65.995</v>
+        <v>67</v>
       </c>
       <c r="J319" t="n">
-        <v>156</v>
+        <v>148.025</v>
       </c>
     </row>
     <row r="320">
@@ -11771,10 +11771,10 @@
         <v>368.823002966229</v>
       </c>
       <c r="I320" t="n">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="J320" t="n">
-        <v>792</v>
+        <v>750</v>
       </c>
     </row>
     <row r="321">
@@ -11803,10 +11803,10 @@
         <v>336.536384921059</v>
       </c>
       <c r="I321" t="n">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="J321" t="n">
-        <v>503.005</v>
+        <v>486.025</v>
       </c>
     </row>
     <row r="322">
@@ -11835,10 +11835,10 @@
         <v>373.097312054422</v>
       </c>
       <c r="I322" t="n">
-        <v>298</v>
+        <v>309.975</v>
       </c>
       <c r="J322" t="n">
-        <v>576</v>
+        <v>551</v>
       </c>
     </row>
     <row r="323">
@@ -11867,10 +11867,10 @@
         <v>291.699706365196</v>
       </c>
       <c r="I323" t="n">
-        <v>229</v>
+        <v>245.975</v>
       </c>
       <c r="J323" t="n">
-        <v>344.02</v>
+        <v>337.025</v>
       </c>
     </row>
     <row r="324">
@@ -11899,10 +11899,10 @@
         <v>311.879087315747</v>
       </c>
       <c r="I324" t="n">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="J324" t="n">
-        <v>364.005</v>
+        <v>351</v>
       </c>
     </row>
     <row r="325">
@@ -11931,10 +11931,10 @@
         <v>257.801458029673</v>
       </c>
       <c r="I325" t="n">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="J325" t="n">
-        <v>360</v>
+        <v>341.025</v>
       </c>
     </row>
     <row r="326">
@@ -11963,10 +11963,10 @@
         <v>377.07112276536</v>
       </c>
       <c r="I326" t="n">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="J326" t="n">
-        <v>431</v>
+        <v>419.025</v>
       </c>
     </row>
     <row r="327">
@@ -11995,10 +11995,10 @@
         <v>343.507138076185</v>
       </c>
       <c r="I327" t="n">
-        <v>275</v>
+        <v>280.975</v>
       </c>
       <c r="J327" t="n">
-        <v>461</v>
+        <v>449</v>
       </c>
     </row>
     <row r="328">
@@ -12027,10 +12027,10 @@
         <v>314.962430359186</v>
       </c>
       <c r="I328" t="n">
-        <v>236</v>
+        <v>247.975</v>
       </c>
       <c r="J328" t="n">
-        <v>518</v>
+        <v>479</v>
       </c>
     </row>
     <row r="329">
@@ -12059,10 +12059,10 @@
         <v>234.986805456451</v>
       </c>
       <c r="I329" t="n">
-        <v>138</v>
+        <v>151.95</v>
       </c>
       <c r="J329" t="n">
-        <v>295</v>
+        <v>281.025</v>
       </c>
     </row>
     <row r="330">
@@ -12091,10 +12091,10 @@
         <v>280.373896559036</v>
       </c>
       <c r="I330" t="n">
-        <v>228.995</v>
+        <v>242</v>
       </c>
       <c r="J330" t="n">
-        <v>325</v>
+        <v>312.025</v>
       </c>
     </row>
     <row r="331">
@@ -12123,10 +12123,10 @@
         <v>260.629806181061</v>
       </c>
       <c r="I331" t="n">
-        <v>210.99</v>
+        <v>216</v>
       </c>
       <c r="J331" t="n">
-        <v>344.01</v>
+        <v>326.025</v>
       </c>
     </row>
     <row r="332">
@@ -12155,10 +12155,10 @@
         <v>454.36741515337</v>
       </c>
       <c r="I332" t="n">
-        <v>373.995</v>
+        <v>394</v>
       </c>
       <c r="J332" t="n">
-        <v>516</v>
+        <v>501.125</v>
       </c>
     </row>
     <row r="333">
@@ -12187,10 +12187,10 @@
         <v>423.227289716428</v>
       </c>
       <c r="I333" t="n">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="J333" t="n">
-        <v>557.005</v>
+        <v>538.025</v>
       </c>
     </row>
     <row r="334">
@@ -12219,10 +12219,10 @@
         <v>406.704179118533</v>
       </c>
       <c r="I334" t="n">
-        <v>312</v>
+        <v>334.975</v>
       </c>
       <c r="J334" t="n">
-        <v>630</v>
+        <v>598.025</v>
       </c>
     </row>
     <row r="335">
@@ -12251,10 +12251,10 @@
         <v>150.47642576349</v>
       </c>
       <c r="I335" t="n">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="J335" t="n">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="336">
@@ -12283,10 +12283,10 @@
         <v>115.690674883245</v>
       </c>
       <c r="I336" t="n">
-        <v>68.99</v>
+        <v>77</v>
       </c>
       <c r="J336" t="n">
-        <v>215</v>
+        <v>200</v>
       </c>
     </row>
     <row r="337">
@@ -12315,10 +12315,10 @@
         <v>125.744742590824</v>
       </c>
       <c r="I337" t="n">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="J337" t="n">
-        <v>191.01</v>
+        <v>180</v>
       </c>
     </row>
     <row r="338">
@@ -12347,10 +12347,10 @@
         <v>106.917292068521</v>
       </c>
       <c r="I338" t="n">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="J338" t="n">
-        <v>183</v>
+        <v>171</v>
       </c>
     </row>
     <row r="339">
@@ -12379,10 +12379,10 @@
         <v>80.3400544703652</v>
       </c>
       <c r="I339" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J339" t="n">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="340">
@@ -12411,10 +12411,10 @@
         <v>85.686889119289</v>
       </c>
       <c r="I340" t="n">
-        <v>41</v>
+        <v>49.975</v>
       </c>
       <c r="J340" t="n">
-        <v>127.005</v>
+        <v>118</v>
       </c>
     </row>
     <row r="341">
@@ -12443,10 +12443,10 @@
         <v>57.2507493580422</v>
       </c>
       <c r="I341" t="n">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="J341" t="n">
-        <v>138</v>
+        <v>124</v>
       </c>
     </row>
     <row r="342">
@@ -12475,10 +12475,10 @@
         <v>37.5944843195356</v>
       </c>
       <c r="I342" t="n">
-        <v>17.995</v>
+        <v>21</v>
       </c>
       <c r="J342" t="n">
-        <v>83</v>
+        <v>71.025</v>
       </c>
     </row>
     <row r="343">
@@ -12507,10 +12507,10 @@
         <v>67.2494395830822</v>
       </c>
       <c r="I343" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J343" t="n">
-        <v>145.01</v>
+        <v>135.025</v>
       </c>
     </row>
     <row r="344">
@@ -12539,10 +12539,10 @@
         <v>23.1499276216785</v>
       </c>
       <c r="I344" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J344" t="n">
-        <v>47.005</v>
+        <v>46</v>
       </c>
     </row>
     <row r="345">
@@ -12571,10 +12571,10 @@
         <v>31.2057576460114</v>
       </c>
       <c r="I345" t="n">
-        <v>15.985</v>
+        <v>17.975</v>
       </c>
       <c r="J345" t="n">
-        <v>62.005</v>
+        <v>58.025</v>
       </c>
     </row>
     <row r="346">
@@ -12603,10 +12603,10 @@
         <v>27.029314267193</v>
       </c>
       <c r="I346" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J346" t="n">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="347">
@@ -12635,10 +12635,10 @@
         <v>47.3340929255814</v>
       </c>
       <c r="I347" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J347" t="n">
-        <v>67</v>
+        <v>64.025</v>
       </c>
     </row>
     <row r="348">
@@ -12667,10 +12667,10 @@
         <v>53.1584536680399</v>
       </c>
       <c r="I348" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="J348" t="n">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="349">
@@ -12699,10 +12699,10 @@
         <v>69.0345749701242</v>
       </c>
       <c r="I349" t="n">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="J349" t="n">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="350">
@@ -12731,10 +12731,10 @@
         <v>36.1508860278777</v>
       </c>
       <c r="I350" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J350" t="n">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="351">
@@ -12763,10 +12763,10 @@
         <v>51.1721215547623</v>
       </c>
       <c r="I351" t="n">
-        <v>24.995</v>
+        <v>28</v>
       </c>
       <c r="J351" t="n">
-        <v>82.005</v>
+        <v>74</v>
       </c>
     </row>
     <row r="352">
@@ -12795,10 +12795,10 @@
         <v>76.6204892210508</v>
       </c>
       <c r="I352" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="J352" t="n">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="353">
@@ -12827,10 +12827,10 @@
         <v>196.320095544125</v>
       </c>
       <c r="I353" t="n">
-        <v>147.985</v>
+        <v>155</v>
       </c>
       <c r="J353" t="n">
-        <v>238</v>
+        <v>226.025</v>
       </c>
     </row>
     <row r="354">
@@ -12859,10 +12859,10 @@
         <v>212.292238329757</v>
       </c>
       <c r="I354" t="n">
-        <v>172.99</v>
+        <v>180</v>
       </c>
       <c r="J354" t="n">
-        <v>263</v>
+        <v>248.025</v>
       </c>
     </row>
     <row r="355">
@@ -12891,10 +12891,10 @@
         <v>175.961866314197</v>
       </c>
       <c r="I355" t="n">
-        <v>126.995</v>
+        <v>130</v>
       </c>
       <c r="J355" t="n">
-        <v>290</v>
+        <v>264.025</v>
       </c>
     </row>
     <row r="356">
@@ -12923,10 +12923,10 @@
         <v>155.989122839645</v>
       </c>
       <c r="I356" t="n">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="J356" t="n">
-        <v>510</v>
+        <v>483.025</v>
       </c>
     </row>
     <row r="357">
@@ -12955,10 +12955,10 @@
         <v>134.836964827179</v>
       </c>
       <c r="I357" t="n">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J357" t="n">
-        <v>193</v>
+        <v>167</v>
       </c>
     </row>
     <row r="358">
@@ -12987,10 +12987,10 @@
         <v>159.744133287368</v>
       </c>
       <c r="I358" t="n">
-        <v>122.995</v>
+        <v>130.975</v>
       </c>
       <c r="J358" t="n">
-        <v>194</v>
+        <v>185</v>
       </c>
     </row>
     <row r="359">
@@ -13019,10 +13019,10 @@
         <v>37.209517065057</v>
       </c>
       <c r="I359" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J359" t="n">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="360">
@@ -13051,10 +13051,10 @@
         <v>40.4353730630425</v>
       </c>
       <c r="I360" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J360" t="n">
-        <v>75</v>
+        <v>64.025</v>
       </c>
     </row>
     <row r="361">
@@ -13083,10 +13083,10 @@
         <v>46.7797089042116</v>
       </c>
       <c r="I361" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J361" t="n">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="362">
@@ -13115,10 +13115,10 @@
         <v>58.0399027513023</v>
       </c>
       <c r="I362" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="J362" t="n">
-        <v>133</v>
+        <v>119.025</v>
       </c>
     </row>
     <row r="363">
@@ -13147,10 +13147,10 @@
         <v>54.1681236040466</v>
       </c>
       <c r="I363" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="J363" t="n">
-        <v>77.005</v>
+        <v>72</v>
       </c>
     </row>
     <row r="364">
@@ -13179,10 +13179,10 @@
         <v>50.8996855018443</v>
       </c>
       <c r="I364" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="J364" t="n">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="365">
@@ -13211,10 +13211,10 @@
         <v>211.845945514825</v>
       </c>
       <c r="I365" t="n">
-        <v>153.995</v>
+        <v>162</v>
       </c>
       <c r="J365" t="n">
-        <v>266.01</v>
+        <v>252.025</v>
       </c>
     </row>
     <row r="366">
@@ -13243,10 +13243,10 @@
         <v>193.385901185886</v>
       </c>
       <c r="I366" t="n">
-        <v>139.98</v>
+        <v>151</v>
       </c>
       <c r="J366" t="n">
-        <v>309</v>
+        <v>289.025</v>
       </c>
     </row>
     <row r="367">
@@ -13275,10 +13275,10 @@
         <v>239.259332900169</v>
       </c>
       <c r="I367" t="n">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="J367" t="n">
-        <v>349.005</v>
+        <v>332.05</v>
       </c>
     </row>
     <row r="368">
@@ -13307,10 +13307,10 @@
         <v>205.690994430342</v>
       </c>
       <c r="I368" t="n">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="J368" t="n">
-        <v>245</v>
+        <v>234</v>
       </c>
     </row>
     <row r="369">
@@ -13339,10 +13339,10 @@
         <v>213.839482742093</v>
       </c>
       <c r="I369" t="n">
-        <v>177</v>
+        <v>182.975</v>
       </c>
       <c r="J369" t="n">
-        <v>256</v>
+        <v>249</v>
       </c>
     </row>
     <row r="370">
@@ -13371,10 +13371,10 @@
         <v>222.188718678344</v>
       </c>
       <c r="I370" t="n">
-        <v>184.985</v>
+        <v>190.975</v>
       </c>
       <c r="J370" t="n">
-        <v>272</v>
+        <v>257</v>
       </c>
     </row>
     <row r="371">
@@ -13403,10 +13403,10 @@
         <v>107.114803370431</v>
       </c>
       <c r="I371" t="n">
-        <v>70.995</v>
+        <v>79</v>
       </c>
       <c r="J371" t="n">
-        <v>185</v>
+        <v>161</v>
       </c>
     </row>
     <row r="372">
@@ -13435,10 +13435,10 @@
         <v>105.45432873513</v>
       </c>
       <c r="I372" t="n">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="J372" t="n">
-        <v>134.005</v>
+        <v>132.025</v>
       </c>
     </row>
     <row r="373">
@@ -13467,10 +13467,10 @@
         <v>127.751372485027</v>
       </c>
       <c r="I373" t="n">
-        <v>96.99</v>
+        <v>102</v>
       </c>
       <c r="J373" t="n">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="374">
@@ -13499,10 +13499,10 @@
         <v>836.872018272848</v>
       </c>
       <c r="I374" t="n">
-        <v>670</v>
+        <v>697</v>
       </c>
       <c r="J374" t="n">
-        <v>1106</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="375">
@@ -13531,10 +13531,10 @@
         <v>831.528037728808</v>
       </c>
       <c r="I375" t="n">
-        <v>627</v>
+        <v>659.95</v>
       </c>
       <c r="J375" t="n">
-        <v>938.025</v>
+        <v>918.025</v>
       </c>
     </row>
     <row r="376">
@@ -13563,10 +13563,10 @@
         <v>878.008049758211</v>
       </c>
       <c r="I376" t="n">
-        <v>804.965</v>
+        <v>818.975</v>
       </c>
       <c r="J376" t="n">
-        <v>963</v>
+        <v>941</v>
       </c>
     </row>
     <row r="377">
@@ -13595,10 +13595,10 @@
         <v>1820.08455105299</v>
       </c>
       <c r="I377" t="n">
-        <v>1323.99</v>
+        <v>1360.975</v>
       </c>
       <c r="J377" t="n">
-        <v>2595</v>
+        <v>2520.1</v>
       </c>
     </row>
     <row r="378">
@@ -13627,10 +13627,10 @@
         <v>1742.95573547586</v>
       </c>
       <c r="I378" t="n">
-        <v>1211</v>
+        <v>1249.975</v>
       </c>
       <c r="J378" t="n">
-        <v>2222</v>
+        <v>2146.05</v>
       </c>
     </row>
     <row r="379">
@@ -13659,10 +13659,10 @@
         <v>1840.55321150759</v>
       </c>
       <c r="I379" t="n">
-        <v>1582.99</v>
+        <v>1635.975</v>
       </c>
       <c r="J379" t="n">
-        <v>2402</v>
+        <v>2350.025</v>
       </c>
     </row>
     <row r="380">
@@ -13691,10 +13691,10 @@
         <v>163.025946306673</v>
       </c>
       <c r="I380" t="n">
-        <v>123.995</v>
+        <v>128</v>
       </c>
       <c r="J380" t="n">
-        <v>297</v>
+        <v>275.025</v>
       </c>
     </row>
     <row r="381">
@@ -13723,10 +13723,10 @@
         <v>153.122162411687</v>
       </c>
       <c r="I381" t="n">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="J381" t="n">
-        <v>196</v>
+        <v>182</v>
       </c>
     </row>
     <row r="382">
@@ -13755,10 +13755,10 @@
         <v>151.65507302194</v>
       </c>
       <c r="I382" t="n">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="J382" t="n">
-        <v>193</v>
+        <v>182.025</v>
       </c>
     </row>
     <row r="383">
@@ -13787,10 +13787,10 @@
         <v>45.0210719268158</v>
       </c>
       <c r="I383" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J383" t="n">
-        <v>70.005</v>
+        <v>66.025</v>
       </c>
     </row>
     <row r="384">
@@ -13819,10 +13819,10 @@
         <v>36.7908534135574</v>
       </c>
       <c r="I384" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J384" t="n">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="385">
@@ -13851,10 +13851,10 @@
         <v>35.8974702752292</v>
       </c>
       <c r="I385" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J385" t="n">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="386">
@@ -13883,10 +13883,10 @@
         <v>138.859855177514</v>
       </c>
       <c r="I386" t="n">
-        <v>99.995</v>
+        <v>108</v>
       </c>
       <c r="J386" t="n">
-        <v>173.02</v>
+        <v>166</v>
       </c>
     </row>
     <row r="387">
@@ -13915,10 +13915,10 @@
         <v>146.728421691242</v>
       </c>
       <c r="I387" t="n">
-        <v>116.98</v>
+        <v>121</v>
       </c>
       <c r="J387" t="n">
-        <v>182.005</v>
+        <v>173</v>
       </c>
     </row>
     <row r="388">
@@ -13947,10 +13947,10 @@
         <v>142.830250142133</v>
       </c>
       <c r="I388" t="n">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="J388" t="n">
-        <v>192</v>
+        <v>176.025</v>
       </c>
     </row>
   </sheetData>
